--- a/TodosPaises.xlsx
+++ b/TodosPaises.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E251"/>
+  <dimension ref="A1:F251"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -407,10 +407,10 @@
         <v>name</v>
       </c>
       <c r="B1" t="str">
+        <v>continent</v>
+      </c>
+      <c r="C1" t="str">
         <v>capital</v>
-      </c>
-      <c r="C1" t="str">
-        <v>population</v>
       </c>
       <c r="D1" t="str">
         <v>language</v>
@@ -418,1291 +418,1519 @@
       <c r="E1" t="str">
         <v>currency</v>
       </c>
+      <c r="F1" t="str">
+        <v>population</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>South Georgia</v>
+        <v>Afghanistan</v>
       </c>
       <c r="B2" t="str">
-        <v>King Edward Point</v>
-      </c>
-      <c r="C2">
-        <v>30</v>
+        <v>Asia</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Kabul</v>
       </c>
       <c r="D2" t="str">
-        <v>English</v>
+        <v>Dari, Pashto, Turkmen</v>
       </c>
       <c r="E2" t="str">
-        <v>Saint Helena pound</v>
+        <v>Afghan afghani</v>
+      </c>
+      <c r="F2">
+        <v>40218234</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Grenada</v>
+        <v>Åland Islands</v>
       </c>
       <c r="B3" t="str">
-        <v>St. George's</v>
-      </c>
-      <c r="C3">
-        <v>112519</v>
+        <v>Europe</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Mariehamn</v>
       </c>
       <c r="D3" t="str">
-        <v>English</v>
+        <v>Swedish</v>
       </c>
       <c r="E3" t="str">
-        <v>Eastern Caribbean dollar</v>
+        <v>Euro</v>
+      </c>
+      <c r="F3">
+        <v>29458</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Switzerland</v>
+        <v>Albania</v>
       </c>
       <c r="B4" t="str">
-        <v>Bern</v>
-      </c>
-      <c r="C4">
-        <v>8654622</v>
+        <v>Europe</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Tirana</v>
       </c>
       <c r="D4" t="str">
-        <v>French, Swiss German, Italian, Romansh</v>
+        <v>Albanian</v>
       </c>
       <c r="E4" t="str">
-        <v>Swiss franc</v>
+        <v>Albanian lek</v>
+      </c>
+      <c r="F4">
+        <v>2837743</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Sierra Leone</v>
+        <v>Algeria</v>
       </c>
       <c r="B5" t="str">
-        <v>Freetown</v>
-      </c>
-      <c r="C5">
-        <v>7976985</v>
+        <v>Africa</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Algiers</v>
       </c>
       <c r="D5" t="str">
-        <v>English</v>
+        <v>Arabic</v>
       </c>
       <c r="E5" t="str">
-        <v>Sierra Leonean leone</v>
+        <v>Algerian dinar</v>
+      </c>
+      <c r="F5">
+        <v>44700000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Hungary</v>
+        <v>American Samoa</v>
       </c>
       <c r="B6" t="str">
-        <v>Budapest</v>
-      </c>
-      <c r="C6">
-        <v>9749763</v>
+        <v>Oceania</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Pago Pago</v>
       </c>
       <c r="D6" t="str">
-        <v>Hungarian</v>
+        <v>English, Samoan</v>
       </c>
       <c r="E6" t="str">
-        <v>Hungarian forint</v>
+        <v>United States dollar</v>
+      </c>
+      <c r="F6">
+        <v>55197</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Taiwan</v>
+        <v>Andorra</v>
       </c>
       <c r="B7" t="str">
-        <v>Taipei</v>
-      </c>
-      <c r="C7">
-        <v>23503349</v>
+        <v>Europe</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Andorra la Vella</v>
       </c>
       <c r="D7" t="str">
-        <v>Chinese</v>
+        <v>Catalan</v>
       </c>
       <c r="E7" t="str">
-        <v>New Taiwan dollar</v>
+        <v>Euro</v>
+      </c>
+      <c r="F7">
+        <v>77265</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Wallis and Futuna</v>
+        <v>Angola</v>
       </c>
       <c r="B8" t="str">
-        <v>Mata-Utu</v>
-      </c>
-      <c r="C8">
-        <v>11750</v>
+        <v>Africa</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Luanda</v>
       </c>
       <c r="D8" t="str">
-        <v>French</v>
+        <v>Portuguese</v>
       </c>
       <c r="E8" t="str">
-        <v>CFP franc</v>
+        <v>Angolan kwanza</v>
+      </c>
+      <c r="F8">
+        <v>32866268</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Barbados</v>
+        <v>Anguilla</v>
       </c>
       <c r="B9" t="str">
-        <v>Bridgetown</v>
-      </c>
-      <c r="C9">
-        <v>287371</v>
+        <v>North America</v>
+      </c>
+      <c r="C9" t="str">
+        <v>The Valley</v>
       </c>
       <c r="D9" t="str">
         <v>English</v>
       </c>
       <c r="E9" t="str">
-        <v>Barbadian dollar</v>
+        <v>Eastern Caribbean dollar</v>
+      </c>
+      <c r="F9">
+        <v>13452</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Pitcairn Islands</v>
+        <v>Antarctica</v>
       </c>
       <c r="B10" t="str">
-        <v>Adamstown</v>
-      </c>
-      <c r="C10">
-        <v>56</v>
+        <v>Antarctica</v>
+      </c>
+      <c r="C10" t="str">
+        <v>N/A</v>
       </c>
       <c r="D10" t="str">
-        <v>English</v>
+        <v>N/A</v>
       </c>
       <c r="E10" t="str">
-        <v>New Zealand dollar</v>
+        <v>N/A</v>
+      </c>
+      <c r="F10">
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Ivory Coast</v>
+        <v>Antigua and Barbuda</v>
       </c>
       <c r="B11" t="str">
-        <v>Yamoussoukro</v>
-      </c>
-      <c r="C11">
-        <v>26378275</v>
+        <v>North America</v>
+      </c>
+      <c r="C11" t="str">
+        <v>Saint John's</v>
       </c>
       <c r="D11" t="str">
-        <v>French</v>
+        <v>English</v>
       </c>
       <c r="E11" t="str">
-        <v>West African CFA franc</v>
+        <v>Eastern Caribbean dollar</v>
+      </c>
+      <c r="F11">
+        <v>97928</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Tunisia</v>
+        <v>Argentina</v>
       </c>
       <c r="B12" t="str">
-        <v>Tunis</v>
-      </c>
-      <c r="C12">
-        <v>11818618</v>
+        <v>South America</v>
+      </c>
+      <c r="C12" t="str">
+        <v>Buenos Aires</v>
       </c>
       <c r="D12" t="str">
-        <v>Arabic</v>
+        <v>Guaraní, Spanish</v>
       </c>
       <c r="E12" t="str">
-        <v>Tunisian dinar</v>
+        <v>Argentine peso</v>
+      </c>
+      <c r="F12">
+        <v>45376763</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Italy</v>
+        <v>Armenia</v>
       </c>
       <c r="B13" t="str">
-        <v>Rome</v>
-      </c>
-      <c r="C13">
-        <v>59554023</v>
+        <v>Asia</v>
+      </c>
+      <c r="C13" t="str">
+        <v>Yerevan</v>
       </c>
       <c r="D13" t="str">
-        <v>Italian</v>
+        <v>Armenian</v>
       </c>
       <c r="E13" t="str">
-        <v>Euro</v>
+        <v>Armenian dram</v>
+      </c>
+      <c r="F13">
+        <v>2963234</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Benin</v>
+        <v>Aruba</v>
       </c>
       <c r="B14" t="str">
-        <v>Porto-Novo</v>
-      </c>
-      <c r="C14">
-        <v>12123198</v>
+        <v>North America</v>
+      </c>
+      <c r="C14" t="str">
+        <v>Oranjestad</v>
       </c>
       <c r="D14" t="str">
-        <v>French</v>
+        <v>Dutch, Papiamento</v>
       </c>
       <c r="E14" t="str">
-        <v>West African CFA franc</v>
+        <v>Aruban florin</v>
+      </c>
+      <c r="F14">
+        <v>106766</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Indonesia</v>
+        <v>Australia</v>
       </c>
       <c r="B15" t="str">
-        <v>Jakarta</v>
-      </c>
-      <c r="C15">
-        <v>273523621</v>
+        <v>Oceania</v>
+      </c>
+      <c r="C15" t="str">
+        <v>Canberra</v>
       </c>
       <c r="D15" t="str">
-        <v>Indonesian</v>
+        <v>English</v>
       </c>
       <c r="E15" t="str">
-        <v>Indonesian rupiah</v>
+        <v>Australian dollar</v>
+      </c>
+      <c r="F15">
+        <v>25687041</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Cape Verde</v>
+        <v>Austria</v>
       </c>
       <c r="B16" t="str">
-        <v>Praia</v>
-      </c>
-      <c r="C16">
-        <v>555988</v>
+        <v>Europe</v>
+      </c>
+      <c r="C16" t="str">
+        <v>Vienna</v>
       </c>
       <c r="D16" t="str">
-        <v>Portuguese</v>
+        <v>German</v>
       </c>
       <c r="E16" t="str">
-        <v>Cape Verdean escudo</v>
+        <v>Euro</v>
+      </c>
+      <c r="F16">
+        <v>8917205</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Saint Kitts and Nevis</v>
+        <v>Azerbaijan</v>
       </c>
       <c r="B17" t="str">
-        <v>Basseterre</v>
-      </c>
-      <c r="C17">
-        <v>53192</v>
+        <v>Europe</v>
+      </c>
+      <c r="C17" t="str">
+        <v>Baku</v>
       </c>
       <c r="D17" t="str">
-        <v>English</v>
+        <v>Azerbaijani</v>
       </c>
       <c r="E17" t="str">
-        <v>Eastern Caribbean dollar</v>
+        <v>Azerbaijani manat</v>
+      </c>
+      <c r="F17">
+        <v>10110116</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Laos</v>
+        <v>Bahamas</v>
       </c>
       <c r="B18" t="str">
-        <v>Vientiane</v>
-      </c>
-      <c r="C18">
-        <v>7275556</v>
+        <v>North America</v>
+      </c>
+      <c r="C18" t="str">
+        <v>Nassau</v>
       </c>
       <c r="D18" t="str">
-        <v>Lao</v>
+        <v>English</v>
       </c>
       <c r="E18" t="str">
-        <v>Lao kip</v>
+        <v>Bahamian dollar, United States dollar</v>
+      </c>
+      <c r="F18">
+        <v>393248</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Caribbean Netherlands</v>
+        <v>Bahrain</v>
       </c>
       <c r="B19" t="str">
-        <v>Kralendijk</v>
-      </c>
-      <c r="C19">
-        <v>25987</v>
+        <v>Asia</v>
+      </c>
+      <c r="C19" t="str">
+        <v>Manama</v>
       </c>
       <c r="D19" t="str">
-        <v>English, Dutch, Papiamento</v>
+        <v>Arabic</v>
       </c>
       <c r="E19" t="str">
-        <v>United States dollar</v>
+        <v>Bahraini dinar</v>
+      </c>
+      <c r="F19">
+        <v>1701583</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Uganda</v>
+        <v>Bangladesh</v>
       </c>
       <c r="B20" t="str">
-        <v>Kampala</v>
-      </c>
-      <c r="C20">
-        <v>45741000</v>
+        <v>Asia</v>
+      </c>
+      <c r="C20" t="str">
+        <v>Dhaka</v>
       </c>
       <c r="D20" t="str">
-        <v>English, Swahili</v>
+        <v>Bengali</v>
       </c>
       <c r="E20" t="str">
-        <v>Ugandan shilling</v>
+        <v>Bangladeshi taka</v>
+      </c>
+      <c r="F20">
+        <v>164689383</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Andorra</v>
+        <v>Barbados</v>
       </c>
       <c r="B21" t="str">
-        <v>Andorra la Vella</v>
-      </c>
-      <c r="C21">
-        <v>77265</v>
+        <v>North America</v>
+      </c>
+      <c r="C21" t="str">
+        <v>Bridgetown</v>
       </c>
       <c r="D21" t="str">
-        <v>Catalan</v>
+        <v>English</v>
       </c>
       <c r="E21" t="str">
-        <v>Euro</v>
+        <v>Barbadian dollar</v>
+      </c>
+      <c r="F21">
+        <v>287371</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Burundi</v>
+        <v>Belarus</v>
       </c>
       <c r="B22" t="str">
-        <v>Gitega</v>
-      </c>
-      <c r="C22">
-        <v>11890781</v>
+        <v>Europe</v>
+      </c>
+      <c r="C22" t="str">
+        <v>Minsk</v>
       </c>
       <c r="D22" t="str">
-        <v>French, Kirundi</v>
+        <v>Belarusian, Russian</v>
       </c>
       <c r="E22" t="str">
-        <v>Burundian franc</v>
+        <v>Belarusian ruble</v>
+      </c>
+      <c r="F22">
+        <v>9398861</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>South Africa</v>
+        <v>Belgium</v>
       </c>
       <c r="B23" t="str">
-        <v>Pretoria</v>
-      </c>
-      <c r="C23">
-        <v>59308690</v>
+        <v>Europe</v>
+      </c>
+      <c r="C23" t="str">
+        <v>Brussels</v>
       </c>
       <c r="D23" t="str">
-        <v>Afrikaans, English, Southern Ndebele, Northern Sotho, Southern Sotho, Swazi, Tswana, Tsonga, Venda, Xhosa, Zulu</v>
+        <v>German, French, Dutch</v>
       </c>
       <c r="E23" t="str">
-        <v>South African rand</v>
+        <v>Euro</v>
+      </c>
+      <c r="F23">
+        <v>11555997</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>France</v>
+        <v>Belize</v>
       </c>
       <c r="B24" t="str">
-        <v>Paris</v>
-      </c>
-      <c r="C24">
-        <v>67391582</v>
+        <v>North America</v>
+      </c>
+      <c r="C24" t="str">
+        <v>Belmopan</v>
       </c>
       <c r="D24" t="str">
-        <v>French</v>
+        <v>Belizean Creole, English, Spanish</v>
       </c>
       <c r="E24" t="str">
-        <v>Euro</v>
+        <v>Belize dollar</v>
+      </c>
+      <c r="F24">
+        <v>397621</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Libya</v>
+        <v>Benin</v>
       </c>
       <c r="B25" t="str">
-        <v>Tripoli</v>
-      </c>
-      <c r="C25">
-        <v>6871287</v>
+        <v>Africa</v>
+      </c>
+      <c r="C25" t="str">
+        <v>Porto-Novo</v>
       </c>
       <c r="D25" t="str">
-        <v>Arabic</v>
+        <v>French</v>
       </c>
       <c r="E25" t="str">
-        <v>Libyan dinar</v>
+        <v>West African CFA franc</v>
+      </c>
+      <c r="F25">
+        <v>12123198</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Mexico</v>
+        <v>Bermuda</v>
       </c>
       <c r="B26" t="str">
-        <v>Mexico City</v>
-      </c>
-      <c r="C26">
-        <v>128932753</v>
+        <v>North America</v>
+      </c>
+      <c r="C26" t="str">
+        <v>Hamilton</v>
       </c>
       <c r="D26" t="str">
-        <v>Spanish</v>
+        <v>English</v>
       </c>
       <c r="E26" t="str">
-        <v>Mexican peso</v>
+        <v>Bermudian dollar</v>
+      </c>
+      <c r="F26">
+        <v>63903</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Gabon</v>
+        <v>Bhutan</v>
       </c>
       <c r="B27" t="str">
-        <v>Libreville</v>
-      </c>
-      <c r="C27">
-        <v>2225728</v>
+        <v>Asia</v>
+      </c>
+      <c r="C27" t="str">
+        <v>Thimphu</v>
       </c>
       <c r="D27" t="str">
-        <v>French</v>
+        <v>Dzongkha</v>
       </c>
       <c r="E27" t="str">
-        <v>Central African CFA franc</v>
+        <v>Bhutanese ngultrum, Indian rupee</v>
+      </c>
+      <c r="F27">
+        <v>771612</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Northern Mariana Islands</v>
+        <v>Bolivia</v>
       </c>
       <c r="B28" t="str">
-        <v>Saipan</v>
-      </c>
-      <c r="C28">
-        <v>57557</v>
+        <v>South America</v>
+      </c>
+      <c r="C28" t="str">
+        <v>Sucre</v>
       </c>
       <c r="D28" t="str">
-        <v>Carolinian, Chamorro, English</v>
+        <v>Aymara, Guaraní, Quechua, Spanish</v>
       </c>
       <c r="E28" t="str">
-        <v>United States dollar</v>
+        <v>Bolivian boliviano</v>
+      </c>
+      <c r="F28">
+        <v>11673029</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>North Macedonia</v>
+        <v>Bosnia and Herzegovina</v>
       </c>
       <c r="B29" t="str">
-        <v>Skopje</v>
-      </c>
-      <c r="C29">
-        <v>2077132</v>
+        <v>Europe</v>
+      </c>
+      <c r="C29" t="str">
+        <v>Sarajevo</v>
       </c>
       <c r="D29" t="str">
-        <v>Macedonian</v>
+        <v>Bosnian, Croatian, Serbian</v>
       </c>
       <c r="E29" t="str">
-        <v>denar</v>
+        <v>Bosnia and Herzegovina convertible mark</v>
+      </c>
+      <c r="F29">
+        <v>3280815</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>China</v>
+        <v>Botswana</v>
       </c>
       <c r="B30" t="str">
-        <v>Beijing</v>
-      </c>
-      <c r="C30">
-        <v>1402112000</v>
+        <v>Africa</v>
+      </c>
+      <c r="C30" t="str">
+        <v>Gaborone</v>
       </c>
       <c r="D30" t="str">
-        <v>Chinese</v>
+        <v>English, Tswana</v>
       </c>
       <c r="E30" t="str">
-        <v>Chinese yuan</v>
+        <v>Botswana pula</v>
+      </c>
+      <c r="F30">
+        <v>2351625</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Yemen</v>
+        <v>Bouvet Island</v>
       </c>
       <c r="B31" t="str">
-        <v>Sana'a</v>
-      </c>
-      <c r="C31">
-        <v>29825968</v>
+        <v>Antarctica</v>
+      </c>
+      <c r="C31" t="str">
+        <v>N/A</v>
       </c>
       <c r="D31" t="str">
-        <v>Arabic</v>
+        <v>Norwegian</v>
       </c>
       <c r="E31" t="str">
-        <v>Yemeni rial</v>
+        <v>N/A</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Saint Barthélemy</v>
+        <v>Brazil</v>
       </c>
       <c r="B32" t="str">
-        <v>Gustavia</v>
-      </c>
-      <c r="C32">
-        <v>4255</v>
+        <v>South America</v>
+      </c>
+      <c r="C32" t="str">
+        <v>Brasília</v>
       </c>
       <c r="D32" t="str">
-        <v>French</v>
+        <v>Portuguese</v>
       </c>
       <c r="E32" t="str">
-        <v>Euro</v>
+        <v>Brazilian real</v>
+      </c>
+      <c r="F32">
+        <v>212559409</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Guernsey</v>
+        <v>British Indian Ocean Territory</v>
       </c>
       <c r="B33" t="str">
-        <v>St. Peter Port</v>
-      </c>
-      <c r="C33">
-        <v>62999</v>
+        <v>Asia</v>
+      </c>
+      <c r="C33" t="str">
+        <v>Diego Garcia</v>
       </c>
       <c r="D33" t="str">
-        <v>English, French, Guernésiais</v>
+        <v>English</v>
       </c>
       <c r="E33" t="str">
-        <v>British pound, Guernsey pound</v>
+        <v>United States dollar</v>
+      </c>
+      <c r="F33">
+        <v>3000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Solomon Islands</v>
+        <v>British Virgin Islands</v>
       </c>
       <c r="B34" t="str">
-        <v>Honiara</v>
-      </c>
-      <c r="C34">
-        <v>686878</v>
+        <v>North America</v>
+      </c>
+      <c r="C34" t="str">
+        <v>Road Town</v>
       </c>
       <c r="D34" t="str">
         <v>English</v>
       </c>
       <c r="E34" t="str">
-        <v>Solomon Islands dollar</v>
+        <v>United States dollar</v>
+      </c>
+      <c r="F34">
+        <v>30237</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Svalbard and Jan Mayen</v>
+        <v>Brunei</v>
       </c>
       <c r="B35" t="str">
-        <v>Longyearbyen</v>
-      </c>
-      <c r="C35">
-        <v>2562</v>
+        <v>Asia</v>
+      </c>
+      <c r="C35" t="str">
+        <v>Bandar Seri Begawan</v>
       </c>
       <c r="D35" t="str">
-        <v>Norwegian</v>
+        <v>Malay</v>
       </c>
       <c r="E35" t="str">
-        <v>krone</v>
+        <v>Brunei dollar, Singapore dollar</v>
+      </c>
+      <c r="F35">
+        <v>437483</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Faroe Islands</v>
+        <v>Bulgaria</v>
       </c>
       <c r="B36" t="str">
-        <v>Tórshavn</v>
-      </c>
-      <c r="C36">
-        <v>48865</v>
+        <v>Europe</v>
+      </c>
+      <c r="C36" t="str">
+        <v>Sofia</v>
       </c>
       <c r="D36" t="str">
-        <v>Danish, Faroese</v>
+        <v>Bulgarian</v>
       </c>
       <c r="E36" t="str">
-        <v>Danish krone, Faroese króna</v>
+        <v>Bulgarian lev</v>
+      </c>
+      <c r="F36">
+        <v>6927288</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Uzbekistan</v>
+        <v>Burkina Faso</v>
       </c>
       <c r="B37" t="str">
-        <v>Tashkent</v>
-      </c>
-      <c r="C37">
-        <v>34232050</v>
+        <v>Africa</v>
+      </c>
+      <c r="C37" t="str">
+        <v>Ouagadougou</v>
       </c>
       <c r="D37" t="str">
-        <v>Russian, Uzbek</v>
+        <v>French</v>
       </c>
       <c r="E37" t="str">
-        <v>Uzbekistani soʻm</v>
+        <v>West African CFA franc</v>
+      </c>
+      <c r="F37">
+        <v>20903278</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Egypt</v>
+        <v>Burundi</v>
       </c>
       <c r="B38" t="str">
-        <v>Cairo</v>
-      </c>
-      <c r="C38">
-        <v>102334403</v>
+        <v>Africa</v>
+      </c>
+      <c r="C38" t="str">
+        <v>Gitega</v>
       </c>
       <c r="D38" t="str">
-        <v>Arabic</v>
+        <v>French, Kirundi</v>
       </c>
       <c r="E38" t="str">
-        <v>Egyptian pound</v>
+        <v>Burundian franc</v>
+      </c>
+      <c r="F38">
+        <v>11890781</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Senegal</v>
+        <v>Cambodia</v>
       </c>
       <c r="B39" t="str">
-        <v>Dakar</v>
-      </c>
-      <c r="C39">
-        <v>16743930</v>
+        <v>Asia</v>
+      </c>
+      <c r="C39" t="str">
+        <v>Phnom Penh</v>
       </c>
       <c r="D39" t="str">
-        <v>French</v>
+        <v>Khmer</v>
       </c>
       <c r="E39" t="str">
-        <v>West African CFA franc</v>
+        <v>Cambodian riel, United States dollar</v>
+      </c>
+      <c r="F39">
+        <v>16718971</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Sri Lanka</v>
+        <v>Cameroon</v>
       </c>
       <c r="B40" t="str">
-        <v>Sri Jayawardenepura Kotte</v>
-      </c>
-      <c r="C40">
-        <v>21919000</v>
+        <v>Africa</v>
+      </c>
+      <c r="C40" t="str">
+        <v>Yaoundé</v>
       </c>
       <c r="D40" t="str">
-        <v>Sinhala, Tamil</v>
+        <v>English, French</v>
       </c>
       <c r="E40" t="str">
-        <v>Sri Lankan rupee</v>
+        <v>Central African CFA franc</v>
+      </c>
+      <c r="F40">
+        <v>26545864</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Palestine</v>
+        <v>Canada</v>
       </c>
       <c r="B41" t="str">
-        <v>Ramallah</v>
-      </c>
-      <c r="C41">
-        <v>4803269</v>
+        <v>North America</v>
+      </c>
+      <c r="C41" t="str">
+        <v>Ottawa</v>
       </c>
       <c r="D41" t="str">
-        <v>Arabic</v>
+        <v>English, French</v>
       </c>
       <c r="E41" t="str">
-        <v>Egyptian pound, Israeli new shekel, Jordanian dinar</v>
+        <v>Canadian dollar</v>
+      </c>
+      <c r="F41">
+        <v>38005238</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Bangladesh</v>
+        <v>Cape Verde</v>
       </c>
       <c r="B42" t="str">
-        <v>Dhaka</v>
-      </c>
-      <c r="C42">
-        <v>164689383</v>
+        <v>Africa</v>
+      </c>
+      <c r="C42" t="str">
+        <v>Praia</v>
       </c>
       <c r="D42" t="str">
-        <v>Bengali</v>
+        <v>Portuguese</v>
       </c>
       <c r="E42" t="str">
-        <v>Bangladeshi taka</v>
+        <v>Cape Verdean escudo</v>
+      </c>
+      <c r="F42">
+        <v>555988</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Peru</v>
+        <v>Caribbean Netherlands</v>
       </c>
       <c r="B43" t="str">
-        <v>Lima</v>
-      </c>
-      <c r="C43">
-        <v>32971846</v>
+        <v>North America</v>
+      </c>
+      <c r="C43" t="str">
+        <v>Kralendijk</v>
       </c>
       <c r="D43" t="str">
-        <v>Aymara, Quechua, Spanish</v>
+        <v>English, Dutch, Papiamento</v>
       </c>
       <c r="E43" t="str">
-        <v>Peruvian sol</v>
+        <v>United States dollar</v>
+      </c>
+      <c r="F43">
+        <v>25987</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Singapore</v>
+        <v>Cayman Islands</v>
       </c>
       <c r="B44" t="str">
-        <v>Singapore</v>
-      </c>
-      <c r="C44">
-        <v>5685807</v>
+        <v>North America</v>
+      </c>
+      <c r="C44" t="str">
+        <v>George Town</v>
       </c>
       <c r="D44" t="str">
-        <v>English, Chinese, Malay, Tamil</v>
+        <v>English</v>
       </c>
       <c r="E44" t="str">
-        <v>Singapore dollar</v>
+        <v>Cayman Islands dollar</v>
+      </c>
+      <c r="F44">
+        <v>65720</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Turkey</v>
+        <v>Central African Republic</v>
       </c>
       <c r="B45" t="str">
-        <v>Ankara</v>
-      </c>
-      <c r="C45">
-        <v>84339067</v>
+        <v>Africa</v>
+      </c>
+      <c r="C45" t="str">
+        <v>Bangui</v>
       </c>
       <c r="D45" t="str">
-        <v>Turkish</v>
+        <v>French, Sango</v>
       </c>
       <c r="E45" t="str">
-        <v>Turkish lira</v>
+        <v>Central African CFA franc</v>
+      </c>
+      <c r="F45">
+        <v>4829764</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Afghanistan</v>
+        <v>Chad</v>
       </c>
       <c r="B46" t="str">
-        <v>Kabul</v>
-      </c>
-      <c r="C46">
-        <v>40218234</v>
+        <v>Africa</v>
+      </c>
+      <c r="C46" t="str">
+        <v>N'Djamena</v>
       </c>
       <c r="D46" t="str">
-        <v>Dari, Pashto, Turkmen</v>
+        <v>Arabic, French</v>
       </c>
       <c r="E46" t="str">
-        <v>Afghan afghani</v>
+        <v>Central African CFA franc</v>
+      </c>
+      <c r="F46">
+        <v>16425859</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Aruba</v>
+        <v>Chile</v>
       </c>
       <c r="B47" t="str">
-        <v>Oranjestad</v>
-      </c>
-      <c r="C47">
-        <v>106766</v>
+        <v>South America</v>
+      </c>
+      <c r="C47" t="str">
+        <v>Santiago</v>
       </c>
       <c r="D47" t="str">
-        <v>Dutch, Papiamento</v>
+        <v>Spanish</v>
       </c>
       <c r="E47" t="str">
-        <v>Aruban florin</v>
+        <v>Chilean peso</v>
+      </c>
+      <c r="F47">
+        <v>19116209</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Cook Islands</v>
+        <v>China</v>
       </c>
       <c r="B48" t="str">
-        <v>Avarua</v>
-      </c>
-      <c r="C48">
-        <v>18100</v>
+        <v>Asia</v>
+      </c>
+      <c r="C48" t="str">
+        <v>Beijing</v>
       </c>
       <c r="D48" t="str">
-        <v>English, Cook Islands Māori</v>
+        <v>Chinese</v>
       </c>
       <c r="E48" t="str">
-        <v>Cook Islands dollar, New Zealand dollar</v>
+        <v>Chinese yuan</v>
+      </c>
+      <c r="F48">
+        <v>1402112000</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>United Kingdom</v>
+        <v>Christmas Island</v>
       </c>
       <c r="B49" t="str">
-        <v>London</v>
-      </c>
-      <c r="C49">
-        <v>67215293</v>
+        <v>Asia</v>
+      </c>
+      <c r="C49" t="str">
+        <v>Flying Fish Cove</v>
       </c>
       <c r="D49" t="str">
         <v>English</v>
       </c>
       <c r="E49" t="str">
-        <v>British pound</v>
+        <v>Australian dollar</v>
+      </c>
+      <c r="F49">
+        <v>2072</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Zambia</v>
+        <v>Cocos (Keeling) Islands</v>
       </c>
       <c r="B50" t="str">
-        <v>Lusaka</v>
-      </c>
-      <c r="C50">
-        <v>18383956</v>
+        <v>Asia</v>
+      </c>
+      <c r="C50" t="str">
+        <v>West Island</v>
       </c>
       <c r="D50" t="str">
         <v>English</v>
       </c>
       <c r="E50" t="str">
-        <v>Zambian kwacha</v>
+        <v>Australian dollar</v>
+      </c>
+      <c r="F50">
+        <v>544</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Finland</v>
+        <v>Colombia</v>
       </c>
       <c r="B51" t="str">
-        <v>Helsinki</v>
-      </c>
-      <c r="C51">
-        <v>5530719</v>
+        <v>South America</v>
+      </c>
+      <c r="C51" t="str">
+        <v>Bogotá</v>
       </c>
       <c r="D51" t="str">
-        <v>Finnish, Swedish</v>
+        <v>Spanish</v>
       </c>
       <c r="E51" t="str">
-        <v>Euro</v>
+        <v>Colombian peso</v>
+      </c>
+      <c r="F51">
+        <v>50882884</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Niger</v>
+        <v>Comoros</v>
       </c>
       <c r="B52" t="str">
-        <v>Niamey</v>
-      </c>
-      <c r="C52">
-        <v>24206636</v>
+        <v>Africa</v>
+      </c>
+      <c r="C52" t="str">
+        <v>Moroni</v>
       </c>
       <c r="D52" t="str">
-        <v>French</v>
+        <v>Arabic, French, Comorian</v>
       </c>
       <c r="E52" t="str">
-        <v>West African CFA franc</v>
+        <v>Comorian franc</v>
+      </c>
+      <c r="F52">
+        <v>869595</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Christmas Island</v>
+        <v>Cook Islands</v>
       </c>
       <c r="B53" t="str">
-        <v>Flying Fish Cove</v>
-      </c>
-      <c r="C53">
-        <v>2072</v>
+        <v>Oceania</v>
+      </c>
+      <c r="C53" t="str">
+        <v>Avarua</v>
       </c>
       <c r="D53" t="str">
-        <v>English</v>
+        <v>English, Cook Islands Māori</v>
       </c>
       <c r="E53" t="str">
-        <v>Australian dollar</v>
+        <v>Cook Islands dollar, New Zealand dollar</v>
+      </c>
+      <c r="F53">
+        <v>18100</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Tokelau</v>
+        <v>Costa Rica</v>
       </c>
       <c r="B54" t="str">
-        <v>Fakaofo</v>
-      </c>
-      <c r="C54">
-        <v>1411</v>
+        <v>North America</v>
+      </c>
+      <c r="C54" t="str">
+        <v>San José</v>
       </c>
       <c r="D54" t="str">
-        <v>English, Samoan, Tokelauan</v>
+        <v>Spanish</v>
       </c>
       <c r="E54" t="str">
-        <v>New Zealand dollar</v>
+        <v>Costa Rican colón</v>
+      </c>
+      <c r="F54">
+        <v>5094114</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Guinea-Bissau</v>
+        <v>Croatia</v>
       </c>
       <c r="B55" t="str">
-        <v>Bissau</v>
-      </c>
-      <c r="C55">
-        <v>1967998</v>
+        <v>Europe</v>
+      </c>
+      <c r="C55" t="str">
+        <v>Zagreb</v>
       </c>
       <c r="D55" t="str">
-        <v>Portuguese, Upper Guinea Creole</v>
+        <v>Croatian</v>
       </c>
       <c r="E55" t="str">
-        <v>West African CFA franc</v>
+        <v>Euro</v>
+      </c>
+      <c r="F55">
+        <v>4047200</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Azerbaijan</v>
+        <v>Cuba</v>
       </c>
       <c r="B56" t="str">
-        <v>Baku</v>
-      </c>
-      <c r="C56">
-        <v>10110116</v>
+        <v>North America</v>
+      </c>
+      <c r="C56" t="str">
+        <v>Havana</v>
       </c>
       <c r="D56" t="str">
-        <v>Azerbaijani</v>
+        <v>Spanish</v>
       </c>
       <c r="E56" t="str">
-        <v>Azerbaijani manat</v>
+        <v>Cuban convertible peso, Cuban peso</v>
+      </c>
+      <c r="F56">
+        <v>11326616</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Réunion</v>
+        <v>Curaçao</v>
       </c>
       <c r="B57" t="str">
-        <v>Saint-Denis</v>
-      </c>
-      <c r="C57">
-        <v>840974</v>
+        <v>North America</v>
+      </c>
+      <c r="C57" t="str">
+        <v>Willemstad</v>
       </c>
       <c r="D57" t="str">
-        <v>French</v>
+        <v>English, Dutch, Papiamento</v>
       </c>
       <c r="E57" t="str">
-        <v>Euro</v>
+        <v>Netherlands Antillean guilder</v>
+      </c>
+      <c r="F57">
+        <v>155014</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Djibouti</v>
+        <v>Cyprus</v>
       </c>
       <c r="B58" t="str">
-        <v>Djibouti</v>
-      </c>
-      <c r="C58">
-        <v>988002</v>
+        <v>Europe</v>
+      </c>
+      <c r="C58" t="str">
+        <v>Nicosia</v>
       </c>
       <c r="D58" t="str">
-        <v>Arabic, French</v>
+        <v>Greek, Turkish</v>
       </c>
       <c r="E58" t="str">
-        <v>Djiboutian franc</v>
+        <v>Euro</v>
+      </c>
+      <c r="F58">
+        <v>1207361</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>North Korea</v>
+        <v>Czechia</v>
       </c>
       <c r="B59" t="str">
-        <v>Pyongyang</v>
-      </c>
-      <c r="C59">
-        <v>25778815</v>
+        <v>Europe</v>
+      </c>
+      <c r="C59" t="str">
+        <v>Prague</v>
       </c>
       <c r="D59" t="str">
-        <v>Korean</v>
+        <v>Czech, Slovak</v>
       </c>
       <c r="E59" t="str">
-        <v>North Korean won</v>
+        <v>Czech koruna</v>
+      </c>
+      <c r="F59">
+        <v>10698896</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Mauritius</v>
+        <v>Denmark</v>
       </c>
       <c r="B60" t="str">
-        <v>Port Louis</v>
-      </c>
-      <c r="C60">
-        <v>1265740</v>
+        <v>Europe</v>
+      </c>
+      <c r="C60" t="str">
+        <v>Copenhagen</v>
       </c>
       <c r="D60" t="str">
-        <v>English, French, Mauritian Creole</v>
+        <v>Danish</v>
       </c>
       <c r="E60" t="str">
-        <v>Mauritian rupee</v>
+        <v>Danish krone</v>
+      </c>
+      <c r="F60">
+        <v>5831404</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Montserrat</v>
+        <v>Djibouti</v>
       </c>
       <c r="B61" t="str">
-        <v>Plymouth</v>
-      </c>
-      <c r="C61">
-        <v>4922</v>
+        <v>Africa</v>
+      </c>
+      <c r="C61" t="str">
+        <v>Djibouti</v>
       </c>
       <c r="D61" t="str">
-        <v>English</v>
+        <v>Arabic, French</v>
       </c>
       <c r="E61" t="str">
-        <v>Eastern Caribbean dollar</v>
+        <v>Djiboutian franc</v>
+      </c>
+      <c r="F61">
+        <v>988002</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>United States Virgin Islands</v>
+        <v>Dominica</v>
       </c>
       <c r="B62" t="str">
-        <v>Charlotte Amalie</v>
-      </c>
-      <c r="C62">
-        <v>106290</v>
+        <v>North America</v>
+      </c>
+      <c r="C62" t="str">
+        <v>Roseau</v>
       </c>
       <c r="D62" t="str">
         <v>English</v>
       </c>
       <c r="E62" t="str">
-        <v>United States dollar</v>
+        <v>Eastern Caribbean dollar</v>
+      </c>
+      <c r="F62">
+        <v>71991</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Colombia</v>
+        <v>Dominican Republic</v>
       </c>
       <c r="B63" t="str">
-        <v>Bogotá</v>
-      </c>
-      <c r="C63">
-        <v>50882884</v>
+        <v>North America</v>
+      </c>
+      <c r="C63" t="str">
+        <v>Santo Domingo</v>
       </c>
       <c r="D63" t="str">
         <v>Spanish</v>
       </c>
       <c r="E63" t="str">
-        <v>Colombian peso</v>
+        <v>Dominican peso</v>
+      </c>
+      <c r="F63">
+        <v>10847904</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Greece</v>
+        <v>DR Congo</v>
       </c>
       <c r="B64" t="str">
-        <v>Athens</v>
-      </c>
-      <c r="C64">
-        <v>10715549</v>
+        <v>Africa</v>
+      </c>
+      <c r="C64" t="str">
+        <v>Kinshasa</v>
       </c>
       <c r="D64" t="str">
-        <v>Greek</v>
+        <v>French, Kikongo, Lingala, Tshiluba, Swahili</v>
       </c>
       <c r="E64" t="str">
-        <v>Euro</v>
+        <v>Congolese franc</v>
+      </c>
+      <c r="F64">
+        <v>108407721</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Croatia</v>
+        <v>Ecuador</v>
       </c>
       <c r="B65" t="str">
-        <v>Zagreb</v>
-      </c>
-      <c r="C65">
-        <v>4047200</v>
+        <v>South America</v>
+      </c>
+      <c r="C65" t="str">
+        <v>Quito</v>
       </c>
       <c r="D65" t="str">
-        <v>Croatian</v>
+        <v>Spanish</v>
       </c>
       <c r="E65" t="str">
-        <v>Euro</v>
+        <v>United States dollar</v>
+      </c>
+      <c r="F65">
+        <v>17643060</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Morocco</v>
+        <v>Egypt</v>
       </c>
       <c r="B66" t="str">
-        <v>Rabat</v>
-      </c>
-      <c r="C66">
-        <v>36910558</v>
+        <v>Africa</v>
+      </c>
+      <c r="C66" t="str">
+        <v>Cairo</v>
       </c>
       <c r="D66" t="str">
-        <v>Arabic, Berber</v>
+        <v>Arabic</v>
       </c>
       <c r="E66" t="str">
-        <v>Moroccan dirham</v>
+        <v>Egyptian pound</v>
+      </c>
+      <c r="F66">
+        <v>102334403</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Algeria</v>
+        <v>El Salvador</v>
       </c>
       <c r="B67" t="str">
-        <v>Algiers</v>
-      </c>
-      <c r="C67">
-        <v>44700000</v>
+        <v>North America</v>
+      </c>
+      <c r="C67" t="str">
+        <v>San Salvador</v>
       </c>
       <c r="D67" t="str">
-        <v>Arabic</v>
+        <v>Spanish</v>
       </c>
       <c r="E67" t="str">
-        <v>Algerian dinar</v>
+        <v>United States dollar</v>
+      </c>
+      <c r="F67">
+        <v>6486201</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Antarctica</v>
+        <v>Equatorial Guinea</v>
       </c>
       <c r="B68" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="C68">
-        <v>1000</v>
+        <v>Africa</v>
+      </c>
+      <c r="C68" t="str">
+        <v>Malabo</v>
       </c>
       <c r="D68" t="str">
-        <v>N/A</v>
+        <v>French, Portuguese, Spanish</v>
       </c>
       <c r="E68" t="str">
-        <v>N/A</v>
+        <v>Central African CFA franc</v>
+      </c>
+      <c r="F68">
+        <v>1402985</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Netherlands</v>
+        <v>Eritrea</v>
       </c>
       <c r="B69" t="str">
-        <v>Amsterdam</v>
-      </c>
-      <c r="C69">
-        <v>16655799</v>
+        <v>Africa</v>
+      </c>
+      <c r="C69" t="str">
+        <v>Asmara</v>
       </c>
       <c r="D69" t="str">
-        <v>Dutch</v>
+        <v>Arabic, English, Tigrinya</v>
       </c>
       <c r="E69" t="str">
-        <v>Euro</v>
+        <v>Eritrean nakfa</v>
+      </c>
+      <c r="F69">
+        <v>5352000</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Sudan</v>
+        <v>Estonia</v>
       </c>
       <c r="B70" t="str">
-        <v>Khartoum</v>
-      </c>
-      <c r="C70">
-        <v>43849269</v>
+        <v>Europe</v>
+      </c>
+      <c r="C70" t="str">
+        <v>Tallinn</v>
       </c>
       <c r="D70" t="str">
-        <v>Arabic, English</v>
+        <v>Estonian</v>
       </c>
       <c r="E70" t="str">
-        <v>Sudanese pound</v>
+        <v>Euro</v>
+      </c>
+      <c r="F70">
+        <v>1331057</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Fiji</v>
+        <v>Eswatini</v>
       </c>
       <c r="B71" t="str">
-        <v>Suva</v>
-      </c>
-      <c r="C71">
-        <v>896444</v>
+        <v>Africa</v>
+      </c>
+      <c r="C71" t="str">
+        <v>Mbabane</v>
       </c>
       <c r="D71" t="str">
-        <v>English, Fijian, Fiji Hindi</v>
+        <v>English, Swazi</v>
       </c>
       <c r="E71" t="str">
-        <v>Fijian dollar</v>
+        <v>Swazi lilangeni, South African rand</v>
+      </c>
+      <c r="F71">
+        <v>1160164</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Liechtenstein</v>
+        <v>Ethiopia</v>
       </c>
       <c r="B72" t="str">
-        <v>Vaduz</v>
-      </c>
-      <c r="C72">
-        <v>38137</v>
+        <v>Africa</v>
+      </c>
+      <c r="C72" t="str">
+        <v>Addis Ababa</v>
       </c>
       <c r="D72" t="str">
-        <v>German</v>
+        <v>Amharic</v>
       </c>
       <c r="E72" t="str">
-        <v>Swiss franc</v>
+        <v>Ethiopian birr</v>
+      </c>
+      <c r="F72">
+        <v>114963583</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Nepal</v>
+        <v>Falkland Islands</v>
       </c>
       <c r="B73" t="str">
-        <v>Kathmandu</v>
-      </c>
-      <c r="C73">
-        <v>29136808</v>
+        <v>South America</v>
+      </c>
+      <c r="C73" t="str">
+        <v>Stanley</v>
       </c>
       <c r="D73" t="str">
-        <v>Nepali</v>
+        <v>English</v>
       </c>
       <c r="E73" t="str">
-        <v>Nepalese rupee</v>
+        <v>Falkland Islands pound</v>
+      </c>
+      <c r="F73">
+        <v>2563</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Puerto Rico</v>
+        <v>Faroe Islands</v>
       </c>
       <c r="B74" t="str">
-        <v>San Juan</v>
-      </c>
-      <c r="C74">
-        <v>3194034</v>
+        <v>Europe</v>
+      </c>
+      <c r="C74" t="str">
+        <v>Tórshavn</v>
       </c>
       <c r="D74" t="str">
-        <v>English, Spanish</v>
+        <v>Danish, Faroese</v>
       </c>
       <c r="E74" t="str">
-        <v>United States dollar</v>
+        <v>Danish krone, Faroese króna</v>
+      </c>
+      <c r="F74">
+        <v>48865</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Georgia</v>
+        <v>Fiji</v>
       </c>
       <c r="B75" t="str">
-        <v>Tbilisi</v>
-      </c>
-      <c r="C75">
-        <v>3714000</v>
+        <v>Oceania</v>
+      </c>
+      <c r="C75" t="str">
+        <v>Suva</v>
       </c>
       <c r="D75" t="str">
-        <v>Georgian</v>
+        <v>English, Fijian, Fiji Hindi</v>
       </c>
       <c r="E75" t="str">
-        <v>lari</v>
+        <v>Fijian dollar</v>
+      </c>
+      <c r="F75">
+        <v>896444</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Pakistan</v>
+        <v>Finland</v>
       </c>
       <c r="B76" t="str">
-        <v>Islamabad</v>
-      </c>
-      <c r="C76">
-        <v>220892331</v>
+        <v>Europe</v>
+      </c>
+      <c r="C76" t="str">
+        <v>Helsinki</v>
       </c>
       <c r="D76" t="str">
-        <v>English, Urdu</v>
+        <v>Finnish, Swedish</v>
       </c>
       <c r="E76" t="str">
-        <v>Pakistani rupee</v>
+        <v>Euro</v>
+      </c>
+      <c r="F76">
+        <v>5530719</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Monaco</v>
+        <v>France</v>
       </c>
       <c r="B77" t="str">
-        <v>Monaco</v>
-      </c>
-      <c r="C77">
-        <v>39244</v>
+        <v>Europe</v>
+      </c>
+      <c r="C77" t="str">
+        <v>Paris</v>
       </c>
       <c r="D77" t="str">
         <v>French</v>
@@ -1710,2968 +1938,3493 @@
       <c r="E77" t="str">
         <v>Euro</v>
       </c>
+      <c r="F77">
+        <v>67391582</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Botswana</v>
+        <v>French Guiana</v>
       </c>
       <c r="B78" t="str">
-        <v>Gaborone</v>
-      </c>
-      <c r="C78">
-        <v>2351625</v>
+        <v>South America</v>
+      </c>
+      <c r="C78" t="str">
+        <v>Cayenne</v>
       </c>
       <c r="D78" t="str">
-        <v>English, Tswana</v>
+        <v>French</v>
       </c>
       <c r="E78" t="str">
-        <v>Botswana pula</v>
+        <v>Euro</v>
+      </c>
+      <c r="F78">
+        <v>254541</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Lebanon</v>
+        <v>French Polynesia</v>
       </c>
       <c r="B79" t="str">
-        <v>Beirut</v>
-      </c>
-      <c r="C79">
-        <v>6825442</v>
+        <v>Oceania</v>
+      </c>
+      <c r="C79" t="str">
+        <v>Papeetē</v>
       </c>
       <c r="D79" t="str">
-        <v>Arabic, French</v>
+        <v>French</v>
       </c>
       <c r="E79" t="str">
-        <v>Lebanese pound</v>
+        <v>CFP franc</v>
+      </c>
+      <c r="F79">
+        <v>280904</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Papua New Guinea</v>
+        <v>French Southern and Antarctic Lands</v>
       </c>
       <c r="B80" t="str">
-        <v>Port Moresby</v>
-      </c>
-      <c r="C80">
-        <v>8947027</v>
+        <v>Antarctica</v>
+      </c>
+      <c r="C80" t="str">
+        <v>Port-aux-Français</v>
       </c>
       <c r="D80" t="str">
-        <v>English, Hiri Motu, Tok Pisin</v>
+        <v>French</v>
       </c>
       <c r="E80" t="str">
-        <v>Papua New Guinean kina</v>
+        <v>Euro</v>
+      </c>
+      <c r="F80">
+        <v>400</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Mayotte</v>
+        <v>Gabon</v>
       </c>
       <c r="B81" t="str">
-        <v>Mamoudzou</v>
-      </c>
-      <c r="C81">
-        <v>226915</v>
+        <v>Africa</v>
+      </c>
+      <c r="C81" t="str">
+        <v>Libreville</v>
       </c>
       <c r="D81" t="str">
         <v>French</v>
       </c>
       <c r="E81" t="str">
-        <v>Euro</v>
+        <v>Central African CFA franc</v>
+      </c>
+      <c r="F81">
+        <v>2225728</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Dominican Republic</v>
+        <v>Gambia</v>
       </c>
       <c r="B82" t="str">
-        <v>Santo Domingo</v>
-      </c>
-      <c r="C82">
-        <v>10847904</v>
+        <v>Africa</v>
+      </c>
+      <c r="C82" t="str">
+        <v>Banjul</v>
       </c>
       <c r="D82" t="str">
-        <v>Spanish</v>
+        <v>English</v>
       </c>
       <c r="E82" t="str">
-        <v>Dominican peso</v>
+        <v>dalasi</v>
+      </c>
+      <c r="F82">
+        <v>2416664</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Norfolk Island</v>
+        <v>Georgia</v>
       </c>
       <c r="B83" t="str">
-        <v>Kingston</v>
-      </c>
-      <c r="C83">
-        <v>2302</v>
+        <v>Asia</v>
+      </c>
+      <c r="C83" t="str">
+        <v>Tbilisi</v>
       </c>
       <c r="D83" t="str">
-        <v>English, Norfuk</v>
+        <v>Georgian</v>
       </c>
       <c r="E83" t="str">
-        <v>Australian dollar</v>
+        <v>lari</v>
+      </c>
+      <c r="F83">
+        <v>3714000</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Bouvet Island</v>
+        <v>Germany</v>
       </c>
       <c r="B84" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="C84">
-        <v>0</v>
+        <v>Europe</v>
+      </c>
+      <c r="C84" t="str">
+        <v>Berlin</v>
       </c>
       <c r="D84" t="str">
-        <v>Norwegian</v>
+        <v>German</v>
       </c>
       <c r="E84" t="str">
-        <v>N/A</v>
+        <v>Euro</v>
+      </c>
+      <c r="F84">
+        <v>83240525</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Qatar</v>
+        <v>Ghana</v>
       </c>
       <c r="B85" t="str">
-        <v>Doha</v>
-      </c>
-      <c r="C85">
-        <v>2881060</v>
+        <v>Africa</v>
+      </c>
+      <c r="C85" t="str">
+        <v>Accra</v>
       </c>
       <c r="D85" t="str">
-        <v>Arabic</v>
+        <v>English</v>
       </c>
       <c r="E85" t="str">
-        <v>Qatari riyal</v>
+        <v>Ghanaian cedi</v>
+      </c>
+      <c r="F85">
+        <v>31072945</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Madagascar</v>
+        <v>Gibraltar</v>
       </c>
       <c r="B86" t="str">
-        <v>Antananarivo</v>
-      </c>
-      <c r="C86">
-        <v>27691019</v>
+        <v>Europe</v>
+      </c>
+      <c r="C86" t="str">
+        <v>Gibraltar</v>
       </c>
       <c r="D86" t="str">
-        <v>French, Malagasy</v>
+        <v>English</v>
       </c>
       <c r="E86" t="str">
-        <v>Malagasy ariary</v>
+        <v>Gibraltar pound</v>
+      </c>
+      <c r="F86">
+        <v>33691</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>India</v>
+        <v>Greece</v>
       </c>
       <c r="B87" t="str">
-        <v>New Delhi</v>
-      </c>
-      <c r="C87">
-        <v>1380004385</v>
+        <v>Europe</v>
+      </c>
+      <c r="C87" t="str">
+        <v>Athens</v>
       </c>
       <c r="D87" t="str">
-        <v>English, Hindi, Tamil</v>
+        <v>Greek</v>
       </c>
       <c r="E87" t="str">
-        <v>Indian rupee</v>
+        <v>Euro</v>
+      </c>
+      <c r="F87">
+        <v>10715549</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Syria</v>
+        <v>Greenland</v>
       </c>
       <c r="B88" t="str">
-        <v>Damascus</v>
-      </c>
-      <c r="C88">
-        <v>17500657</v>
+        <v>North America</v>
+      </c>
+      <c r="C88" t="str">
+        <v>Nuuk</v>
       </c>
       <c r="D88" t="str">
-        <v>Arabic</v>
+        <v>Greenlandic</v>
       </c>
       <c r="E88" t="str">
-        <v>Syrian pound</v>
+        <v>krone</v>
+      </c>
+      <c r="F88">
+        <v>56367</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Montenegro</v>
+        <v>Grenada</v>
       </c>
       <c r="B89" t="str">
-        <v>Podgorica</v>
-      </c>
-      <c r="C89">
-        <v>621718</v>
+        <v>North America</v>
+      </c>
+      <c r="C89" t="str">
+        <v>St. George's</v>
       </c>
       <c r="D89" t="str">
-        <v>Montenegrin</v>
+        <v>English</v>
       </c>
       <c r="E89" t="str">
-        <v>Euro</v>
+        <v>Eastern Caribbean dollar</v>
+      </c>
+      <c r="F89">
+        <v>112519</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Eswatini</v>
+        <v>Guadeloupe</v>
       </c>
       <c r="B90" t="str">
-        <v>Mbabane</v>
-      </c>
-      <c r="C90">
-        <v>1160164</v>
+        <v>North America</v>
+      </c>
+      <c r="C90" t="str">
+        <v>Basse-Terre</v>
       </c>
       <c r="D90" t="str">
-        <v>English, Swazi</v>
+        <v>French</v>
       </c>
       <c r="E90" t="str">
-        <v>Swazi lilangeni, South African rand</v>
+        <v>Euro</v>
+      </c>
+      <c r="F90">
+        <v>400132</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Paraguay</v>
+        <v>Guam</v>
       </c>
       <c r="B91" t="str">
-        <v>Asunción</v>
-      </c>
-      <c r="C91">
-        <v>7132530</v>
+        <v>Oceania</v>
+      </c>
+      <c r="C91" t="str">
+        <v>Hagåtña</v>
       </c>
       <c r="D91" t="str">
-        <v>Guaraní, Spanish</v>
+        <v>Chamorro, English, Spanish</v>
       </c>
       <c r="E91" t="str">
-        <v>Paraguayan guaraní</v>
+        <v>United States dollar</v>
+      </c>
+      <c r="F91">
+        <v>168783</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>El Salvador</v>
+        <v>Guatemala</v>
       </c>
       <c r="B92" t="str">
-        <v>San Salvador</v>
-      </c>
-      <c r="C92">
-        <v>6486201</v>
+        <v>North America</v>
+      </c>
+      <c r="C92" t="str">
+        <v>Guatemala City</v>
       </c>
       <c r="D92" t="str">
         <v>Spanish</v>
       </c>
       <c r="E92" t="str">
-        <v>United States dollar</v>
+        <v>Guatemalan quetzal</v>
+      </c>
+      <c r="F92">
+        <v>16858333</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Ukraine</v>
+        <v>Guernsey</v>
       </c>
       <c r="B93" t="str">
-        <v>Kyiv</v>
-      </c>
-      <c r="C93">
-        <v>44134693</v>
+        <v>Europe</v>
+      </c>
+      <c r="C93" t="str">
+        <v>St. Peter Port</v>
       </c>
       <c r="D93" t="str">
-        <v>Ukrainian</v>
+        <v>English, French, Guernésiais</v>
       </c>
       <c r="E93" t="str">
-        <v>Ukrainian hryvnia</v>
+        <v>British pound, Guernsey pound</v>
+      </c>
+      <c r="F93">
+        <v>62999</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Isle of Man</v>
+        <v>Guinea</v>
       </c>
       <c r="B94" t="str">
-        <v>Douglas</v>
-      </c>
-      <c r="C94">
-        <v>85032</v>
+        <v>Africa</v>
+      </c>
+      <c r="C94" t="str">
+        <v>Conakry</v>
       </c>
       <c r="D94" t="str">
-        <v>English, Manx</v>
+        <v>French</v>
       </c>
       <c r="E94" t="str">
-        <v>British pound, Manx pound</v>
+        <v>Guinean franc</v>
+      </c>
+      <c r="F94">
+        <v>13132792</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Namibia</v>
+        <v>Guinea-Bissau</v>
       </c>
       <c r="B95" t="str">
-        <v>Windhoek</v>
-      </c>
-      <c r="C95">
-        <v>2540916</v>
+        <v>Africa</v>
+      </c>
+      <c r="C95" t="str">
+        <v>Bissau</v>
       </c>
       <c r="D95" t="str">
-        <v>Afrikaans, German, English, Herero, Khoekhoe, Kwangali, Lozi, Ndonga, Tswana</v>
+        <v>Portuguese, Upper Guinea Creole</v>
       </c>
       <c r="E95" t="str">
-        <v>Namibian dollar, South African rand</v>
+        <v>West African CFA franc</v>
+      </c>
+      <c r="F95">
+        <v>1967998</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>United Arab Emirates</v>
+        <v>Guyana</v>
       </c>
       <c r="B96" t="str">
-        <v>Abu Dhabi</v>
-      </c>
-      <c r="C96">
-        <v>9890400</v>
+        <v>South America</v>
+      </c>
+      <c r="C96" t="str">
+        <v>Georgetown</v>
       </c>
       <c r="D96" t="str">
-        <v>Arabic</v>
+        <v>English</v>
       </c>
       <c r="E96" t="str">
-        <v>United Arab Emirates dirham</v>
+        <v>Guyanese dollar</v>
+      </c>
+      <c r="F96">
+        <v>786559</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Bulgaria</v>
+        <v>Haiti</v>
       </c>
       <c r="B97" t="str">
-        <v>Sofia</v>
-      </c>
-      <c r="C97">
-        <v>6927288</v>
+        <v>North America</v>
+      </c>
+      <c r="C97" t="str">
+        <v>Port-au-Prince</v>
       </c>
       <c r="D97" t="str">
-        <v>Bulgarian</v>
+        <v>French, Haitian Creole</v>
       </c>
       <c r="E97" t="str">
-        <v>Bulgarian lev</v>
+        <v>Haitian gourde</v>
+      </c>
+      <c r="F97">
+        <v>11402533</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Greenland</v>
+        <v>Heard Island and McDonald Islands</v>
       </c>
       <c r="B98" t="str">
-        <v>Nuuk</v>
-      </c>
-      <c r="C98">
-        <v>56367</v>
+        <v>Antarctica</v>
+      </c>
+      <c r="C98" t="str">
+        <v>N/A</v>
       </c>
       <c r="D98" t="str">
-        <v>Greenlandic</v>
+        <v>English</v>
       </c>
       <c r="E98" t="str">
-        <v>krone</v>
+        <v>N/A</v>
+      </c>
+      <c r="F98">
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Germany</v>
+        <v>Honduras</v>
       </c>
       <c r="B99" t="str">
-        <v>Berlin</v>
-      </c>
-      <c r="C99">
-        <v>83240525</v>
+        <v>North America</v>
+      </c>
+      <c r="C99" t="str">
+        <v>Tegucigalpa</v>
       </c>
       <c r="D99" t="str">
-        <v>German</v>
+        <v>Spanish</v>
       </c>
       <c r="E99" t="str">
-        <v>Euro</v>
+        <v>Honduran lempira</v>
+      </c>
+      <c r="F99">
+        <v>9904608</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Cambodia</v>
+        <v>Hong Kong</v>
       </c>
       <c r="B100" t="str">
-        <v>Phnom Penh</v>
-      </c>
-      <c r="C100">
-        <v>16718971</v>
+        <v>Asia</v>
+      </c>
+      <c r="C100" t="str">
+        <v>City of Victoria</v>
       </c>
       <c r="D100" t="str">
-        <v>Khmer</v>
+        <v>English, Chinese</v>
       </c>
       <c r="E100" t="str">
-        <v>Cambodian riel, United States dollar</v>
+        <v>Hong Kong dollar</v>
+      </c>
+      <c r="F100">
+        <v>7500700</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Iraq</v>
+        <v>Hungary</v>
       </c>
       <c r="B101" t="str">
-        <v>Baghdad</v>
-      </c>
-      <c r="C101">
-        <v>40222503</v>
+        <v>Europe</v>
+      </c>
+      <c r="C101" t="str">
+        <v>Budapest</v>
       </c>
       <c r="D101" t="str">
-        <v>Arabic, Aramaic, Sorani</v>
+        <v>Hungarian</v>
       </c>
       <c r="E101" t="str">
-        <v>Iraqi dinar</v>
+        <v>Hungarian forint</v>
+      </c>
+      <c r="F101">
+        <v>9749763</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>French Southern and Antarctic Lands</v>
+        <v>Iceland</v>
       </c>
       <c r="B102" t="str">
-        <v>Port-aux-Français</v>
-      </c>
-      <c r="C102">
-        <v>400</v>
+        <v>Europe</v>
+      </c>
+      <c r="C102" t="str">
+        <v>Reykjavik</v>
       </c>
       <c r="D102" t="str">
-        <v>French</v>
+        <v>Icelandic</v>
       </c>
       <c r="E102" t="str">
-        <v>Euro</v>
+        <v>Icelandic króna</v>
+      </c>
+      <c r="F102">
+        <v>366425</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Sweden</v>
+        <v>India</v>
       </c>
       <c r="B103" t="str">
-        <v>Stockholm</v>
-      </c>
-      <c r="C103">
-        <v>10353442</v>
+        <v>Asia</v>
+      </c>
+      <c r="C103" t="str">
+        <v>New Delhi</v>
       </c>
       <c r="D103" t="str">
-        <v>Swedish</v>
+        <v>English, Hindi, Tamil</v>
       </c>
       <c r="E103" t="str">
-        <v>Swedish krona</v>
+        <v>Indian rupee</v>
+      </c>
+      <c r="F103">
+        <v>1380004385</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Cuba</v>
+        <v>Indonesia</v>
       </c>
       <c r="B104" t="str">
-        <v>Havana</v>
-      </c>
-      <c r="C104">
-        <v>11326616</v>
+        <v>Asia</v>
+      </c>
+      <c r="C104" t="str">
+        <v>Jakarta</v>
       </c>
       <c r="D104" t="str">
-        <v>Spanish</v>
+        <v>Indonesian</v>
       </c>
       <c r="E104" t="str">
-        <v>Cuban convertible peso, Cuban peso</v>
+        <v>Indonesian rupiah</v>
+      </c>
+      <c r="F104">
+        <v>273523621</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Kyrgyzstan</v>
+        <v>Iran</v>
       </c>
       <c r="B105" t="str">
-        <v>Bishkek</v>
-      </c>
-      <c r="C105">
-        <v>6591600</v>
+        <v>Asia</v>
+      </c>
+      <c r="C105" t="str">
+        <v>Tehran</v>
       </c>
       <c r="D105" t="str">
-        <v>Kyrgyz, Russian</v>
+        <v>Persian (Farsi)</v>
       </c>
       <c r="E105" t="str">
-        <v>Kyrgyzstani som</v>
+        <v>Iranian rial</v>
+      </c>
+      <c r="F105">
+        <v>83992953</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Russia</v>
+        <v>Iraq</v>
       </c>
       <c r="B106" t="str">
-        <v>Moscow</v>
-      </c>
-      <c r="C106">
-        <v>144104080</v>
+        <v>Asia</v>
+      </c>
+      <c r="C106" t="str">
+        <v>Baghdad</v>
       </c>
       <c r="D106" t="str">
-        <v>Russian</v>
+        <v>Arabic, Aramaic, Sorani</v>
       </c>
       <c r="E106" t="str">
-        <v>Russian ruble</v>
+        <v>Iraqi dinar</v>
+      </c>
+      <c r="F106">
+        <v>40222503</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Malaysia</v>
+        <v>Ireland</v>
       </c>
       <c r="B107" t="str">
-        <v>Kuala Lumpur</v>
-      </c>
-      <c r="C107">
-        <v>32365998</v>
+        <v>Europe</v>
+      </c>
+      <c r="C107" t="str">
+        <v>Dublin</v>
       </c>
       <c r="D107" t="str">
-        <v>English, Malay</v>
+        <v>English, Irish</v>
       </c>
       <c r="E107" t="str">
-        <v>Malaysian ringgit</v>
+        <v>Euro</v>
+      </c>
+      <c r="F107">
+        <v>4994724</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>São Tomé and Príncipe</v>
+        <v>Isle of Man</v>
       </c>
       <c r="B108" t="str">
-        <v>São Tomé</v>
-      </c>
-      <c r="C108">
-        <v>219161</v>
+        <v>Europe</v>
+      </c>
+      <c r="C108" t="str">
+        <v>Douglas</v>
       </c>
       <c r="D108" t="str">
-        <v>Portuguese</v>
+        <v>English, Manx</v>
       </c>
       <c r="E108" t="str">
-        <v>São Tomé and Príncipe dobra</v>
+        <v>British pound, Manx pound</v>
+      </c>
+      <c r="F108">
+        <v>85032</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>Cyprus</v>
+        <v>Israel</v>
       </c>
       <c r="B109" t="str">
-        <v>Nicosia</v>
-      </c>
-      <c r="C109">
-        <v>1207361</v>
+        <v>Asia</v>
+      </c>
+      <c r="C109" t="str">
+        <v>Jerusalem</v>
       </c>
       <c r="D109" t="str">
-        <v>Greek, Turkish</v>
+        <v>Arabic, Hebrew</v>
       </c>
       <c r="E109" t="str">
-        <v>Euro</v>
+        <v>Israeli new shekel</v>
+      </c>
+      <c r="F109">
+        <v>9216900</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Canada</v>
+        <v>Italy</v>
       </c>
       <c r="B110" t="str">
-        <v>Ottawa</v>
-      </c>
-      <c r="C110">
-        <v>38005238</v>
+        <v>Europe</v>
+      </c>
+      <c r="C110" t="str">
+        <v>Rome</v>
       </c>
       <c r="D110" t="str">
-        <v>English, French</v>
+        <v>Italian</v>
       </c>
       <c r="E110" t="str">
-        <v>Canadian dollar</v>
+        <v>Euro</v>
+      </c>
+      <c r="F110">
+        <v>59554023</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Malawi</v>
+        <v>Ivory Coast</v>
       </c>
       <c r="B111" t="str">
-        <v>Lilongwe</v>
-      </c>
-      <c r="C111">
-        <v>19129955</v>
+        <v>Africa</v>
+      </c>
+      <c r="C111" t="str">
+        <v>Yamoussoukro</v>
       </c>
       <c r="D111" t="str">
-        <v>English, Chewa</v>
+        <v>French</v>
       </c>
       <c r="E111" t="str">
-        <v>Malawian kwacha</v>
+        <v>West African CFA franc</v>
+      </c>
+      <c r="F111">
+        <v>26378275</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Saudi Arabia</v>
+        <v>Jamaica</v>
       </c>
       <c r="B112" t="str">
-        <v>Riyadh</v>
-      </c>
-      <c r="C112">
-        <v>34813867</v>
+        <v>North America</v>
+      </c>
+      <c r="C112" t="str">
+        <v>Kingston</v>
       </c>
       <c r="D112" t="str">
-        <v>Arabic</v>
+        <v>English, Jamaican Patois</v>
       </c>
       <c r="E112" t="str">
-        <v>Saudi riyal</v>
+        <v>Jamaican dollar</v>
+      </c>
+      <c r="F112">
+        <v>2961161</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Bosnia and Herzegovina</v>
+        <v>Japan</v>
       </c>
       <c r="B113" t="str">
-        <v>Sarajevo</v>
-      </c>
-      <c r="C113">
-        <v>3280815</v>
+        <v>Asia</v>
+      </c>
+      <c r="C113" t="str">
+        <v>Tokyo</v>
       </c>
       <c r="D113" t="str">
-        <v>Bosnian, Croatian, Serbian</v>
+        <v>Japanese</v>
       </c>
       <c r="E113" t="str">
-        <v>Bosnia and Herzegovina convertible mark</v>
+        <v>Japanese yen</v>
+      </c>
+      <c r="F113">
+        <v>125836021</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>Ethiopia</v>
+        <v>Jersey</v>
       </c>
       <c r="B114" t="str">
-        <v>Addis Ababa</v>
-      </c>
-      <c r="C114">
-        <v>114963583</v>
+        <v>Europe</v>
+      </c>
+      <c r="C114" t="str">
+        <v>Saint Helier</v>
       </c>
       <c r="D114" t="str">
-        <v>Amharic</v>
+        <v>English, French, Jèrriais</v>
       </c>
       <c r="E114" t="str">
-        <v>Ethiopian birr</v>
+        <v>British pound, Jersey pound</v>
+      </c>
+      <c r="F114">
+        <v>100800</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Spain</v>
+        <v>Jordan</v>
       </c>
       <c r="B115" t="str">
-        <v>Madrid</v>
-      </c>
-      <c r="C115">
-        <v>47351567</v>
+        <v>Asia</v>
+      </c>
+      <c r="C115" t="str">
+        <v>Amman</v>
       </c>
       <c r="D115" t="str">
-        <v>Spanish, Catalan, Basque, Galician</v>
+        <v>Arabic</v>
       </c>
       <c r="E115" t="str">
-        <v>Euro</v>
+        <v>Jordanian dinar</v>
+      </c>
+      <c r="F115">
+        <v>10203140</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Slovenia</v>
+        <v>Kazakhstan</v>
       </c>
       <c r="B116" t="str">
-        <v>Ljubljana</v>
-      </c>
-      <c r="C116">
-        <v>2100126</v>
+        <v>Asia</v>
+      </c>
+      <c r="C116" t="str">
+        <v>Nur-Sultan</v>
       </c>
       <c r="D116" t="str">
-        <v>Slovene</v>
+        <v>Kazakh, Russian</v>
       </c>
       <c r="E116" t="str">
-        <v>Euro</v>
+        <v>Kazakhstani tenge</v>
+      </c>
+      <c r="F116">
+        <v>18754440</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Oman</v>
+        <v>Kenya</v>
       </c>
       <c r="B117" t="str">
-        <v>Muscat</v>
-      </c>
-      <c r="C117">
-        <v>5106622</v>
+        <v>Africa</v>
+      </c>
+      <c r="C117" t="str">
+        <v>Nairobi</v>
       </c>
       <c r="D117" t="str">
-        <v>Arabic</v>
+        <v>English, Swahili</v>
       </c>
       <c r="E117" t="str">
-        <v>Omani rial</v>
+        <v>Kenyan shilling</v>
+      </c>
+      <c r="F117">
+        <v>53771300</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>Saint Pierre and Miquelon</v>
+        <v>Kiribati</v>
       </c>
       <c r="B118" t="str">
-        <v>Saint-Pierre</v>
-      </c>
-      <c r="C118">
-        <v>6069</v>
+        <v>Oceania</v>
+      </c>
+      <c r="C118" t="str">
+        <v>South Tarawa</v>
       </c>
       <c r="D118" t="str">
-        <v>French</v>
+        <v>English, Gilbertese</v>
       </c>
       <c r="E118" t="str">
-        <v>Euro</v>
+        <v>Australian dollar, Kiribati dollar</v>
+      </c>
+      <c r="F118">
+        <v>119446</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Macau</v>
+        <v>Kosovo</v>
       </c>
       <c r="B119" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="C119">
-        <v>649342</v>
+        <v>Europe</v>
+      </c>
+      <c r="C119" t="str">
+        <v>Pristina</v>
       </c>
       <c r="D119" t="str">
-        <v>Portuguese, Chinese</v>
+        <v>Albanian, Serbian</v>
       </c>
       <c r="E119" t="str">
-        <v>Macanese pataca</v>
+        <v>Euro</v>
+      </c>
+      <c r="F119">
+        <v>1775378</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>San Marino</v>
+        <v>Kuwait</v>
       </c>
       <c r="B120" t="str">
-        <v>City of San Marino</v>
-      </c>
-      <c r="C120">
-        <v>33938</v>
+        <v>Asia</v>
+      </c>
+      <c r="C120" t="str">
+        <v>Kuwait City</v>
       </c>
       <c r="D120" t="str">
-        <v>Italian</v>
+        <v>Arabic</v>
       </c>
       <c r="E120" t="str">
-        <v>Euro</v>
+        <v>Kuwaiti dinar</v>
+      </c>
+      <c r="F120">
+        <v>4270563</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>Lesotho</v>
+        <v>Kyrgyzstan</v>
       </c>
       <c r="B121" t="str">
-        <v>Maseru</v>
-      </c>
-      <c r="C121">
-        <v>2142252</v>
+        <v>Asia</v>
+      </c>
+      <c r="C121" t="str">
+        <v>Bishkek</v>
       </c>
       <c r="D121" t="str">
-        <v>English, Sotho</v>
+        <v>Kyrgyz, Russian</v>
       </c>
       <c r="E121" t="str">
-        <v>Lesotho loti, South African rand</v>
+        <v>Kyrgyzstani som</v>
+      </c>
+      <c r="F121">
+        <v>6591600</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>Marshall Islands</v>
+        <v>Laos</v>
       </c>
       <c r="B122" t="str">
-        <v>Majuro</v>
-      </c>
-      <c r="C122">
-        <v>59194</v>
+        <v>Asia</v>
+      </c>
+      <c r="C122" t="str">
+        <v>Vientiane</v>
       </c>
       <c r="D122" t="str">
-        <v>English, Marshallese</v>
+        <v>Lao</v>
       </c>
       <c r="E122" t="str">
-        <v>United States dollar</v>
+        <v>Lao kip</v>
+      </c>
+      <c r="F122">
+        <v>7275556</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>Sint Maarten</v>
+        <v>Latvia</v>
       </c>
       <c r="B123" t="str">
-        <v>Philipsburg</v>
-      </c>
-      <c r="C123">
-        <v>40812</v>
+        <v>Europe</v>
+      </c>
+      <c r="C123" t="str">
+        <v>Riga</v>
       </c>
       <c r="D123" t="str">
-        <v>English, French, Dutch</v>
+        <v>Latvian</v>
       </c>
       <c r="E123" t="str">
-        <v>Netherlands Antillean guilder</v>
+        <v>Euro</v>
+      </c>
+      <c r="F123">
+        <v>1901548</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>Iceland</v>
+        <v>Lebanon</v>
       </c>
       <c r="B124" t="str">
-        <v>Reykjavik</v>
-      </c>
-      <c r="C124">
-        <v>366425</v>
+        <v>Asia</v>
+      </c>
+      <c r="C124" t="str">
+        <v>Beirut</v>
       </c>
       <c r="D124" t="str">
-        <v>Icelandic</v>
+        <v>Arabic, French</v>
       </c>
       <c r="E124" t="str">
-        <v>Icelandic króna</v>
+        <v>Lebanese pound</v>
+      </c>
+      <c r="F124">
+        <v>6825442</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>Luxembourg</v>
+        <v>Lesotho</v>
       </c>
       <c r="B125" t="str">
-        <v>Luxembourg</v>
-      </c>
-      <c r="C125">
-        <v>632275</v>
+        <v>Africa</v>
+      </c>
+      <c r="C125" t="str">
+        <v>Maseru</v>
       </c>
       <c r="D125" t="str">
-        <v>German, French, Luxembourgish</v>
+        <v>English, Sotho</v>
       </c>
       <c r="E125" t="str">
-        <v>Euro</v>
+        <v>Lesotho loti, South African rand</v>
+      </c>
+      <c r="F125">
+        <v>2142252</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>Argentina</v>
+        <v>Liberia</v>
       </c>
       <c r="B126" t="str">
-        <v>Buenos Aires</v>
-      </c>
-      <c r="C126">
-        <v>45376763</v>
+        <v>Africa</v>
+      </c>
+      <c r="C126" t="str">
+        <v>Monrovia</v>
       </c>
       <c r="D126" t="str">
-        <v>Guaraní, Spanish</v>
+        <v>English</v>
       </c>
       <c r="E126" t="str">
-        <v>Argentine peso</v>
+        <v>Liberian dollar</v>
+      </c>
+      <c r="F126">
+        <v>5057677</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Turks and Caicos Islands</v>
+        <v>Libya</v>
       </c>
       <c r="B127" t="str">
-        <v>Cockburn Town</v>
-      </c>
-      <c r="C127">
-        <v>38718</v>
+        <v>Africa</v>
+      </c>
+      <c r="C127" t="str">
+        <v>Tripoli</v>
       </c>
       <c r="D127" t="str">
-        <v>English</v>
+        <v>Arabic</v>
       </c>
       <c r="E127" t="str">
-        <v>United States dollar</v>
+        <v>Libyan dinar</v>
+      </c>
+      <c r="F127">
+        <v>6871287</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>Nauru</v>
+        <v>Liechtenstein</v>
       </c>
       <c r="B128" t="str">
-        <v>Yaren</v>
-      </c>
-      <c r="C128">
-        <v>10834</v>
+        <v>Europe</v>
+      </c>
+      <c r="C128" t="str">
+        <v>Vaduz</v>
       </c>
       <c r="D128" t="str">
-        <v>English, Nauru</v>
+        <v>German</v>
       </c>
       <c r="E128" t="str">
-        <v>Australian dollar</v>
+        <v>Swiss franc</v>
+      </c>
+      <c r="F128">
+        <v>38137</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>Cocos (Keeling) Islands</v>
+        <v>Lithuania</v>
       </c>
       <c r="B129" t="str">
-        <v>West Island</v>
-      </c>
-      <c r="C129">
-        <v>544</v>
+        <v>Europe</v>
+      </c>
+      <c r="C129" t="str">
+        <v>Vilnius</v>
       </c>
       <c r="D129" t="str">
-        <v>English</v>
+        <v>Lithuanian</v>
       </c>
       <c r="E129" t="str">
-        <v>Australian dollar</v>
+        <v>Euro</v>
+      </c>
+      <c r="F129">
+        <v>2794700</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>Western Sahara</v>
+        <v>Luxembourg</v>
       </c>
       <c r="B130" t="str">
-        <v>El Aaiún</v>
-      </c>
-      <c r="C130">
-        <v>510713</v>
+        <v>Europe</v>
+      </c>
+      <c r="C130" t="str">
+        <v>Luxembourg</v>
       </c>
       <c r="D130" t="str">
-        <v>Berber, Hassaniya, Spanish</v>
+        <v>German, French, Luxembourgish</v>
       </c>
       <c r="E130" t="str">
-        <v>Algerian dinar, Moroccan dirham, Mauritanian ouguiya</v>
+        <v>Euro</v>
+      </c>
+      <c r="F130">
+        <v>632275</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Dominica</v>
+        <v>Macau</v>
       </c>
       <c r="B131" t="str">
-        <v>Roseau</v>
-      </c>
-      <c r="C131">
-        <v>71991</v>
+        <v>Asia</v>
+      </c>
+      <c r="C131" t="str">
+        <v>N/A</v>
       </c>
       <c r="D131" t="str">
-        <v>English</v>
+        <v>Portuguese, Chinese</v>
       </c>
       <c r="E131" t="str">
-        <v>Eastern Caribbean dollar</v>
+        <v>Macanese pataca</v>
+      </c>
+      <c r="F131">
+        <v>649342</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>Costa Rica</v>
+        <v>Madagascar</v>
       </c>
       <c r="B132" t="str">
-        <v>San José</v>
-      </c>
-      <c r="C132">
-        <v>5094114</v>
+        <v>Africa</v>
+      </c>
+      <c r="C132" t="str">
+        <v>Antananarivo</v>
       </c>
       <c r="D132" t="str">
-        <v>Spanish</v>
+        <v>French, Malagasy</v>
       </c>
       <c r="E132" t="str">
-        <v>Costa Rican colón</v>
+        <v>Malagasy ariary</v>
+      </c>
+      <c r="F132">
+        <v>27691019</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>Australia</v>
+        <v>Malawi</v>
       </c>
       <c r="B133" t="str">
-        <v>Canberra</v>
-      </c>
-      <c r="C133">
-        <v>25687041</v>
+        <v>Africa</v>
+      </c>
+      <c r="C133" t="str">
+        <v>Lilongwe</v>
       </c>
       <c r="D133" t="str">
-        <v>English</v>
+        <v>English, Chewa</v>
       </c>
       <c r="E133" t="str">
-        <v>Australian dollar</v>
+        <v>Malawian kwacha</v>
+      </c>
+      <c r="F133">
+        <v>19129955</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>Thailand</v>
+        <v>Malaysia</v>
       </c>
       <c r="B134" t="str">
-        <v>Bangkok</v>
-      </c>
-      <c r="C134">
-        <v>69799978</v>
+        <v>Asia</v>
+      </c>
+      <c r="C134" t="str">
+        <v>Kuala Lumpur</v>
       </c>
       <c r="D134" t="str">
-        <v>Thai</v>
+        <v>English, Malay</v>
       </c>
       <c r="E134" t="str">
-        <v>Thai baht</v>
+        <v>Malaysian ringgit</v>
+      </c>
+      <c r="F134">
+        <v>32365998</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>Haiti</v>
+        <v>Maldives</v>
       </c>
       <c r="B135" t="str">
-        <v>Port-au-Prince</v>
-      </c>
-      <c r="C135">
-        <v>11402533</v>
+        <v>Asia</v>
+      </c>
+      <c r="C135" t="str">
+        <v>Malé</v>
       </c>
       <c r="D135" t="str">
-        <v>French, Haitian Creole</v>
+        <v>Maldivian</v>
       </c>
       <c r="E135" t="str">
-        <v>Haitian gourde</v>
+        <v>Maldivian rufiyaa</v>
+      </c>
+      <c r="F135">
+        <v>540542</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>Tuvalu</v>
+        <v>Mali</v>
       </c>
       <c r="B136" t="str">
-        <v>Funafuti</v>
-      </c>
-      <c r="C136">
-        <v>11792</v>
+        <v>Africa</v>
+      </c>
+      <c r="C136" t="str">
+        <v>Bamako</v>
       </c>
       <c r="D136" t="str">
-        <v>English, Tuvaluan</v>
+        <v>French</v>
       </c>
       <c r="E136" t="str">
-        <v>Australian dollar, Tuvaluan dollar</v>
+        <v>West African CFA franc</v>
+      </c>
+      <c r="F136">
+        <v>20250834</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>Honduras</v>
+        <v>Malta</v>
       </c>
       <c r="B137" t="str">
-        <v>Tegucigalpa</v>
-      </c>
-      <c r="C137">
-        <v>9904608</v>
+        <v>Europe</v>
+      </c>
+      <c r="C137" t="str">
+        <v>Valletta</v>
       </c>
       <c r="D137" t="str">
-        <v>Spanish</v>
+        <v>English, Maltese</v>
       </c>
       <c r="E137" t="str">
-        <v>Honduran lempira</v>
+        <v>Euro</v>
+      </c>
+      <c r="F137">
+        <v>525285</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>Equatorial Guinea</v>
+        <v>Marshall Islands</v>
       </c>
       <c r="B138" t="str">
-        <v>Malabo</v>
-      </c>
-      <c r="C138">
-        <v>1402985</v>
+        <v>Oceania</v>
+      </c>
+      <c r="C138" t="str">
+        <v>Majuro</v>
       </c>
       <c r="D138" t="str">
-        <v>French, Portuguese, Spanish</v>
+        <v>English, Marshallese</v>
       </c>
       <c r="E138" t="str">
-        <v>Central African CFA franc</v>
+        <v>United States dollar</v>
+      </c>
+      <c r="F138">
+        <v>59194</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>Saint Lucia</v>
+        <v>Martinique</v>
       </c>
       <c r="B139" t="str">
-        <v>Castries</v>
-      </c>
-      <c r="C139">
-        <v>183629</v>
+        <v>North America</v>
+      </c>
+      <c r="C139" t="str">
+        <v>Fort-de-France</v>
       </c>
       <c r="D139" t="str">
-        <v>English</v>
+        <v>French</v>
       </c>
       <c r="E139" t="str">
-        <v>Eastern Caribbean dollar</v>
+        <v>Euro</v>
+      </c>
+      <c r="F139">
+        <v>378243</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>French Polynesia</v>
+        <v>Mauritania</v>
       </c>
       <c r="B140" t="str">
-        <v>Papeetē</v>
-      </c>
-      <c r="C140">
-        <v>280904</v>
+        <v>Africa</v>
+      </c>
+      <c r="C140" t="str">
+        <v>Nouakchott</v>
       </c>
       <c r="D140" t="str">
-        <v>French</v>
+        <v>Arabic</v>
       </c>
       <c r="E140" t="str">
-        <v>CFP franc</v>
+        <v>Mauritanian ouguiya</v>
+      </c>
+      <c r="F140">
+        <v>4649660</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>Belarus</v>
+        <v>Mauritius</v>
       </c>
       <c r="B141" t="str">
-        <v>Minsk</v>
-      </c>
-      <c r="C141">
-        <v>9398861</v>
+        <v>Africa</v>
+      </c>
+      <c r="C141" t="str">
+        <v>Port Louis</v>
       </c>
       <c r="D141" t="str">
-        <v>Belarusian, Russian</v>
+        <v>English, French, Mauritian Creole</v>
       </c>
       <c r="E141" t="str">
-        <v>Belarusian ruble</v>
+        <v>Mauritian rupee</v>
+      </c>
+      <c r="F141">
+        <v>1265740</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>Latvia</v>
+        <v>Mayotte</v>
       </c>
       <c r="B142" t="str">
-        <v>Riga</v>
-      </c>
-      <c r="C142">
-        <v>1901548</v>
+        <v>Africa</v>
+      </c>
+      <c r="C142" t="str">
+        <v>Mamoudzou</v>
       </c>
       <c r="D142" t="str">
-        <v>Latvian</v>
+        <v>French</v>
       </c>
       <c r="E142" t="str">
         <v>Euro</v>
       </c>
+      <c r="F142">
+        <v>226915</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>Palau</v>
+        <v>Mexico</v>
       </c>
       <c r="B143" t="str">
-        <v>Ngerulmud</v>
-      </c>
-      <c r="C143">
-        <v>18092</v>
+        <v>North America</v>
+      </c>
+      <c r="C143" t="str">
+        <v>Mexico City</v>
       </c>
       <c r="D143" t="str">
-        <v>English, Palauan</v>
+        <v>Spanish</v>
       </c>
       <c r="E143" t="str">
-        <v>United States dollar</v>
+        <v>Mexican peso</v>
+      </c>
+      <c r="F143">
+        <v>128932753</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>Guadeloupe</v>
+        <v>Micronesia</v>
       </c>
       <c r="B144" t="str">
-        <v>Basse-Terre</v>
-      </c>
-      <c r="C144">
-        <v>400132</v>
+        <v>Oceania</v>
+      </c>
+      <c r="C144" t="str">
+        <v>Palikir</v>
       </c>
       <c r="D144" t="str">
-        <v>French</v>
+        <v>English</v>
       </c>
       <c r="E144" t="str">
-        <v>Euro</v>
+        <v>United States dollar</v>
+      </c>
+      <c r="F144">
+        <v>115021</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>Philippines</v>
+        <v>Moldova</v>
       </c>
       <c r="B145" t="str">
-        <v>Manila</v>
-      </c>
-      <c r="C145">
-        <v>109581085</v>
+        <v>Europe</v>
+      </c>
+      <c r="C145" t="str">
+        <v>Chișinău</v>
       </c>
       <c r="D145" t="str">
-        <v>English, Filipino</v>
+        <v>Romanian</v>
       </c>
       <c r="E145" t="str">
-        <v>Philippine peso</v>
+        <v>Moldovan leu</v>
+      </c>
+      <c r="F145">
+        <v>2617820</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>Gibraltar</v>
+        <v>Monaco</v>
       </c>
       <c r="B146" t="str">
-        <v>Gibraltar</v>
-      </c>
-      <c r="C146">
-        <v>33691</v>
+        <v>Europe</v>
+      </c>
+      <c r="C146" t="str">
+        <v>Monaco</v>
       </c>
       <c r="D146" t="str">
-        <v>English</v>
+        <v>French</v>
       </c>
       <c r="E146" t="str">
-        <v>Gibraltar pound</v>
+        <v>Euro</v>
+      </c>
+      <c r="F146">
+        <v>39244</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>Denmark</v>
+        <v>Mongolia</v>
       </c>
       <c r="B147" t="str">
-        <v>Copenhagen</v>
-      </c>
-      <c r="C147">
-        <v>5831404</v>
+        <v>Asia</v>
+      </c>
+      <c r="C147" t="str">
+        <v>Ulan Bator</v>
       </c>
       <c r="D147" t="str">
-        <v>Danish</v>
+        <v>Mongolian</v>
       </c>
       <c r="E147" t="str">
-        <v>Danish krone</v>
+        <v>Mongolian tögrög</v>
+      </c>
+      <c r="F147">
+        <v>3278292</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>Cameroon</v>
+        <v>Montenegro</v>
       </c>
       <c r="B148" t="str">
-        <v>Yaoundé</v>
-      </c>
-      <c r="C148">
-        <v>26545864</v>
+        <v>Europe</v>
+      </c>
+      <c r="C148" t="str">
+        <v>Podgorica</v>
       </c>
       <c r="D148" t="str">
-        <v>English, French</v>
+        <v>Montenegrin</v>
       </c>
       <c r="E148" t="str">
-        <v>Central African CFA franc</v>
+        <v>Euro</v>
+      </c>
+      <c r="F148">
+        <v>621718</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>Guinea</v>
+        <v>Montserrat</v>
       </c>
       <c r="B149" t="str">
-        <v>Conakry</v>
-      </c>
-      <c r="C149">
-        <v>13132792</v>
+        <v>North America</v>
+      </c>
+      <c r="C149" t="str">
+        <v>Plymouth</v>
       </c>
       <c r="D149" t="str">
-        <v>French</v>
+        <v>English</v>
       </c>
       <c r="E149" t="str">
-        <v>Guinean franc</v>
+        <v>Eastern Caribbean dollar</v>
+      </c>
+      <c r="F149">
+        <v>4922</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>Bahrain</v>
+        <v>Morocco</v>
       </c>
       <c r="B150" t="str">
-        <v>Manama</v>
-      </c>
-      <c r="C150">
-        <v>1701583</v>
+        <v>Africa</v>
+      </c>
+      <c r="C150" t="str">
+        <v>Rabat</v>
       </c>
       <c r="D150" t="str">
-        <v>Arabic</v>
+        <v>Arabic, Berber</v>
       </c>
       <c r="E150" t="str">
-        <v>Bahraini dinar</v>
+        <v>Moroccan dirham</v>
+      </c>
+      <c r="F150">
+        <v>36910558</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>Suriname</v>
+        <v>Mozambique</v>
       </c>
       <c r="B151" t="str">
-        <v>Paramaribo</v>
-      </c>
-      <c r="C151">
-        <v>586634</v>
+        <v>Africa</v>
+      </c>
+      <c r="C151" t="str">
+        <v>Maputo</v>
       </c>
       <c r="D151" t="str">
-        <v>Dutch</v>
+        <v>Portuguese</v>
       </c>
       <c r="E151" t="str">
-        <v>Surinamese dollar</v>
+        <v>Mozambican metical</v>
+      </c>
+      <c r="F151">
+        <v>31255435</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>DR Congo</v>
+        <v>Myanmar</v>
       </c>
       <c r="B152" t="str">
-        <v>Kinshasa</v>
-      </c>
-      <c r="C152">
-        <v>108407721</v>
+        <v>Asia</v>
+      </c>
+      <c r="C152" t="str">
+        <v>Naypyidaw</v>
       </c>
       <c r="D152" t="str">
-        <v>French, Kikongo, Lingala, Tshiluba, Swahili</v>
+        <v>Burmese</v>
       </c>
       <c r="E152" t="str">
-        <v>Congolese franc</v>
+        <v>Burmese kyat</v>
+      </c>
+      <c r="F152">
+        <v>54409794</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>Somalia</v>
+        <v>Namibia</v>
       </c>
       <c r="B153" t="str">
-        <v>Mogadishu</v>
-      </c>
-      <c r="C153">
-        <v>15893219</v>
+        <v>Africa</v>
+      </c>
+      <c r="C153" t="str">
+        <v>Windhoek</v>
       </c>
       <c r="D153" t="str">
-        <v>Arabic, Somali</v>
+        <v>Afrikaans, German, English, Herero, Khoekhoe, Kwangali, Lozi, Ndonga, Tswana</v>
       </c>
       <c r="E153" t="str">
-        <v>Somali shilling</v>
+        <v>Namibian dollar, South African rand</v>
+      </c>
+      <c r="F153">
+        <v>2540916</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>Czechia</v>
+        <v>Nauru</v>
       </c>
       <c r="B154" t="str">
-        <v>Prague</v>
-      </c>
-      <c r="C154">
-        <v>10698896</v>
+        <v>Oceania</v>
+      </c>
+      <c r="C154" t="str">
+        <v>Yaren</v>
       </c>
       <c r="D154" t="str">
-        <v>Czech, Slovak</v>
+        <v>English, Nauru</v>
       </c>
       <c r="E154" t="str">
-        <v>Czech koruna</v>
+        <v>Australian dollar</v>
+      </c>
+      <c r="F154">
+        <v>10834</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>New Caledonia</v>
+        <v>Nepal</v>
       </c>
       <c r="B155" t="str">
-        <v>Nouméa</v>
-      </c>
-      <c r="C155">
-        <v>271960</v>
+        <v>Asia</v>
+      </c>
+      <c r="C155" t="str">
+        <v>Kathmandu</v>
       </c>
       <c r="D155" t="str">
-        <v>French</v>
+        <v>Nepali</v>
       </c>
       <c r="E155" t="str">
-        <v>CFP franc</v>
+        <v>Nepalese rupee</v>
+      </c>
+      <c r="F155">
+        <v>29136808</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>Vanuatu</v>
+        <v>Netherlands</v>
       </c>
       <c r="B156" t="str">
-        <v>Port Vila</v>
-      </c>
-      <c r="C156">
-        <v>307150</v>
+        <v>Europe</v>
+      </c>
+      <c r="C156" t="str">
+        <v>Amsterdam</v>
       </c>
       <c r="D156" t="str">
-        <v>Bislama, English, French</v>
+        <v>Dutch</v>
       </c>
       <c r="E156" t="str">
-        <v>Vanuatu vatu</v>
+        <v>Euro</v>
+      </c>
+      <c r="F156">
+        <v>16655799</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="str">
-        <v>Saint Helena, Ascension and Tristan da Cunha</v>
+        <v>New Caledonia</v>
       </c>
       <c r="B157" t="str">
-        <v>Jamestown</v>
-      </c>
-      <c r="C157">
-        <v>53192</v>
+        <v>Oceania</v>
+      </c>
+      <c r="C157" t="str">
+        <v>Nouméa</v>
       </c>
       <c r="D157" t="str">
-        <v>English</v>
+        <v>French</v>
       </c>
       <c r="E157" t="str">
-        <v>Pound sterling, Saint Helena pound</v>
+        <v>CFP franc</v>
+      </c>
+      <c r="F157">
+        <v>271960</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
-        <v>Togo</v>
+        <v>New Zealand</v>
       </c>
       <c r="B158" t="str">
-        <v>Lomé</v>
-      </c>
-      <c r="C158">
-        <v>8278737</v>
+        <v>Oceania</v>
+      </c>
+      <c r="C158" t="str">
+        <v>Wellington</v>
       </c>
       <c r="D158" t="str">
-        <v>French</v>
+        <v>English, Māori, New Zealand Sign Language</v>
       </c>
       <c r="E158" t="str">
-        <v>West African CFA franc</v>
+        <v>New Zealand dollar</v>
+      </c>
+      <c r="F158">
+        <v>5084300</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
-        <v>British Virgin Islands</v>
+        <v>Nicaragua</v>
       </c>
       <c r="B159" t="str">
-        <v>Road Town</v>
-      </c>
-      <c r="C159">
-        <v>30237</v>
+        <v>North America</v>
+      </c>
+      <c r="C159" t="str">
+        <v>Managua</v>
       </c>
       <c r="D159" t="str">
-        <v>English</v>
+        <v>Spanish</v>
       </c>
       <c r="E159" t="str">
-        <v>United States dollar</v>
+        <v>Nicaraguan córdoba</v>
+      </c>
+      <c r="F159">
+        <v>6624554</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
-        <v>Kenya</v>
+        <v>Niger</v>
       </c>
       <c r="B160" t="str">
-        <v>Nairobi</v>
-      </c>
-      <c r="C160">
-        <v>53771300</v>
+        <v>Africa</v>
+      </c>
+      <c r="C160" t="str">
+        <v>Niamey</v>
       </c>
       <c r="D160" t="str">
-        <v>English, Swahili</v>
+        <v>French</v>
       </c>
       <c r="E160" t="str">
-        <v>Kenyan shilling</v>
+        <v>West African CFA franc</v>
+      </c>
+      <c r="F160">
+        <v>24206636</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
-        <v>Niue</v>
+        <v>Nigeria</v>
       </c>
       <c r="B161" t="str">
-        <v>Alofi</v>
-      </c>
-      <c r="C161">
-        <v>1470</v>
+        <v>Africa</v>
+      </c>
+      <c r="C161" t="str">
+        <v>Abuja</v>
       </c>
       <c r="D161" t="str">
-        <v>English, Niuean</v>
+        <v>English</v>
       </c>
       <c r="E161" t="str">
-        <v>New Zealand dollar</v>
+        <v>Nigerian naira</v>
+      </c>
+      <c r="F161">
+        <v>206139587</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
-        <v>Heard Island and McDonald Islands</v>
+        <v>Niue</v>
       </c>
       <c r="B162" t="str">
-        <v>N/A</v>
-      </c>
-      <c r="C162">
-        <v>0</v>
+        <v>Oceania</v>
+      </c>
+      <c r="C162" t="str">
+        <v>Alofi</v>
       </c>
       <c r="D162" t="str">
-        <v>English</v>
+        <v>English, Niuean</v>
       </c>
       <c r="E162" t="str">
-        <v>N/A</v>
+        <v>New Zealand dollar</v>
+      </c>
+      <c r="F162">
+        <v>1470</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
-        <v>Rwanda</v>
+        <v>Norfolk Island</v>
       </c>
       <c r="B163" t="str">
-        <v>Kigali</v>
-      </c>
-      <c r="C163">
-        <v>12952209</v>
+        <v>Oceania</v>
+      </c>
+      <c r="C163" t="str">
+        <v>Kingston</v>
       </c>
       <c r="D163" t="str">
-        <v>English, French, Kinyarwanda</v>
+        <v>English, Norfuk</v>
       </c>
       <c r="E163" t="str">
-        <v>Rwandan franc</v>
+        <v>Australian dollar</v>
+      </c>
+      <c r="F163">
+        <v>2302</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
-        <v>Estonia</v>
+        <v>North Korea</v>
       </c>
       <c r="B164" t="str">
-        <v>Tallinn</v>
-      </c>
-      <c r="C164">
-        <v>1331057</v>
+        <v>Asia</v>
+      </c>
+      <c r="C164" t="str">
+        <v>Pyongyang</v>
       </c>
       <c r="D164" t="str">
-        <v>Estonian</v>
+        <v>Korean</v>
       </c>
       <c r="E164" t="str">
-        <v>Euro</v>
+        <v>North Korean won</v>
+      </c>
+      <c r="F164">
+        <v>25778815</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>Romania</v>
+        <v>North Macedonia</v>
       </c>
       <c r="B165" t="str">
-        <v>Bucharest</v>
-      </c>
-      <c r="C165">
-        <v>19286123</v>
+        <v>Europe</v>
+      </c>
+      <c r="C165" t="str">
+        <v>Skopje</v>
       </c>
       <c r="D165" t="str">
-        <v>Romanian</v>
+        <v>Macedonian</v>
       </c>
       <c r="E165" t="str">
-        <v>Romanian leu</v>
+        <v>denar</v>
+      </c>
+      <c r="F165">
+        <v>2077132</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>Trinidad and Tobago</v>
+        <v>Northern Mariana Islands</v>
       </c>
       <c r="B166" t="str">
-        <v>Port of Spain</v>
-      </c>
-      <c r="C166">
-        <v>1399491</v>
+        <v>Oceania</v>
+      </c>
+      <c r="C166" t="str">
+        <v>Saipan</v>
       </c>
       <c r="D166" t="str">
-        <v>English</v>
+        <v>Carolinian, Chamorro, English</v>
       </c>
       <c r="E166" t="str">
-        <v>Trinidad and Tobago dollar</v>
+        <v>United States dollar</v>
+      </c>
+      <c r="F166">
+        <v>57557</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>Guyana</v>
+        <v>Norway</v>
       </c>
       <c r="B167" t="str">
-        <v>Georgetown</v>
-      </c>
-      <c r="C167">
-        <v>786559</v>
+        <v>Europe</v>
+      </c>
+      <c r="C167" t="str">
+        <v>Oslo</v>
       </c>
       <c r="D167" t="str">
-        <v>English</v>
+        <v>Norwegian Nynorsk, Norwegian Bokmål, Sami</v>
       </c>
       <c r="E167" t="str">
-        <v>Guyanese dollar</v>
+        <v>Norwegian krone</v>
+      </c>
+      <c r="F167">
+        <v>5379475</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="str">
-        <v>Timor-Leste</v>
+        <v>Oman</v>
       </c>
       <c r="B168" t="str">
-        <v>Dili</v>
-      </c>
-      <c r="C168">
-        <v>1318442</v>
+        <v>Asia</v>
+      </c>
+      <c r="C168" t="str">
+        <v>Muscat</v>
       </c>
       <c r="D168" t="str">
-        <v>Portuguese, Tetum</v>
+        <v>Arabic</v>
       </c>
       <c r="E168" t="str">
-        <v>United States dollar</v>
+        <v>Omani rial</v>
+      </c>
+      <c r="F168">
+        <v>5106622</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="str">
-        <v>Vietnam</v>
+        <v>Pakistan</v>
       </c>
       <c r="B169" t="str">
-        <v>Hanoi</v>
-      </c>
-      <c r="C169">
-        <v>97338583</v>
+        <v>Asia</v>
+      </c>
+      <c r="C169" t="str">
+        <v>Islamabad</v>
       </c>
       <c r="D169" t="str">
-        <v>Vietnamese</v>
+        <v>English, Urdu</v>
       </c>
       <c r="E169" t="str">
-        <v>Vietnamese đồng</v>
+        <v>Pakistani rupee</v>
+      </c>
+      <c r="F169">
+        <v>220892331</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="str">
-        <v>Uruguay</v>
+        <v>Palau</v>
       </c>
       <c r="B170" t="str">
-        <v>Montevideo</v>
-      </c>
-      <c r="C170">
-        <v>3473727</v>
+        <v>Oceania</v>
+      </c>
+      <c r="C170" t="str">
+        <v>Ngerulmud</v>
       </c>
       <c r="D170" t="str">
-        <v>Spanish</v>
+        <v>English, Palauan</v>
       </c>
       <c r="E170" t="str">
-        <v>Uruguayan peso</v>
+        <v>United States dollar</v>
+      </c>
+      <c r="F170">
+        <v>18092</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="str">
-        <v>Vatican City</v>
+        <v>Palestine</v>
       </c>
       <c r="B171" t="str">
-        <v>Vatican City</v>
-      </c>
-      <c r="C171">
-        <v>451</v>
+        <v>Asia</v>
+      </c>
+      <c r="C171" t="str">
+        <v>Ramallah</v>
       </c>
       <c r="D171" t="str">
-        <v>Italian, Latin</v>
+        <v>Arabic</v>
       </c>
       <c r="E171" t="str">
-        <v>Euro</v>
+        <v>Egyptian pound, Israeli new shekel, Jordanian dinar</v>
+      </c>
+      <c r="F171">
+        <v>4803269</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="str">
-        <v>Hong Kong</v>
+        <v>Panama</v>
       </c>
       <c r="B172" t="str">
-        <v>City of Victoria</v>
-      </c>
-      <c r="C172">
-        <v>7500700</v>
+        <v>North America</v>
+      </c>
+      <c r="C172" t="str">
+        <v>Panama City</v>
       </c>
       <c r="D172" t="str">
-        <v>English, Chinese</v>
+        <v>Spanish</v>
       </c>
       <c r="E172" t="str">
-        <v>Hong Kong dollar</v>
+        <v>Panamanian balboa, United States dollar</v>
+      </c>
+      <c r="F172">
+        <v>4314768</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="str">
-        <v>Austria</v>
+        <v>Papua New Guinea</v>
       </c>
       <c r="B173" t="str">
-        <v>Vienna</v>
-      </c>
-      <c r="C173">
-        <v>8917205</v>
+        <v>Oceania</v>
+      </c>
+      <c r="C173" t="str">
+        <v>Port Moresby</v>
       </c>
       <c r="D173" t="str">
-        <v>German</v>
+        <v>English, Hiri Motu, Tok Pisin</v>
       </c>
       <c r="E173" t="str">
-        <v>Euro</v>
+        <v>Papua New Guinean kina</v>
+      </c>
+      <c r="F173">
+        <v>8947027</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="str">
-        <v>Antigua and Barbuda</v>
+        <v>Paraguay</v>
       </c>
       <c r="B174" t="str">
-        <v>Saint John's</v>
-      </c>
-      <c r="C174">
-        <v>97928</v>
+        <v>South America</v>
+      </c>
+      <c r="C174" t="str">
+        <v>Asunción</v>
       </c>
       <c r="D174" t="str">
-        <v>English</v>
+        <v>Guaraní, Spanish</v>
       </c>
       <c r="E174" t="str">
-        <v>Eastern Caribbean dollar</v>
+        <v>Paraguayan guaraní</v>
+      </c>
+      <c r="F174">
+        <v>7132530</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="str">
-        <v>Turkmenistan</v>
+        <v>Peru</v>
       </c>
       <c r="B175" t="str">
-        <v>Ashgabat</v>
-      </c>
-      <c r="C175">
-        <v>6031187</v>
+        <v>South America</v>
+      </c>
+      <c r="C175" t="str">
+        <v>Lima</v>
       </c>
       <c r="D175" t="str">
-        <v>Russian, Turkmen</v>
+        <v>Aymara, Quechua, Spanish</v>
       </c>
       <c r="E175" t="str">
-        <v>Turkmenistan manat</v>
+        <v>Peruvian sol</v>
+      </c>
+      <c r="F175">
+        <v>32971846</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="str">
-        <v>Mozambique</v>
+        <v>Philippines</v>
       </c>
       <c r="B176" t="str">
-        <v>Maputo</v>
-      </c>
-      <c r="C176">
-        <v>31255435</v>
+        <v>Asia</v>
+      </c>
+      <c r="C176" t="str">
+        <v>Manila</v>
       </c>
       <c r="D176" t="str">
-        <v>Portuguese</v>
+        <v>English, Filipino</v>
       </c>
       <c r="E176" t="str">
-        <v>Mozambican metical</v>
+        <v>Philippine peso</v>
+      </c>
+      <c r="F176">
+        <v>109581085</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="str">
-        <v>Panama</v>
+        <v>Pitcairn Islands</v>
       </c>
       <c r="B177" t="str">
-        <v>Panama City</v>
-      </c>
-      <c r="C177">
-        <v>4314768</v>
+        <v>Oceania</v>
+      </c>
+      <c r="C177" t="str">
+        <v>Adamstown</v>
       </c>
       <c r="D177" t="str">
-        <v>Spanish</v>
+        <v>English</v>
       </c>
       <c r="E177" t="str">
-        <v>Panamanian balboa, United States dollar</v>
+        <v>New Zealand dollar</v>
+      </c>
+      <c r="F177">
+        <v>56</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="str">
-        <v>Micronesia</v>
+        <v>Poland</v>
       </c>
       <c r="B178" t="str">
-        <v>Palikir</v>
-      </c>
-      <c r="C178">
-        <v>115021</v>
+        <v>Europe</v>
+      </c>
+      <c r="C178" t="str">
+        <v>Warsaw</v>
       </c>
       <c r="D178" t="str">
-        <v>English</v>
+        <v>Polish</v>
       </c>
       <c r="E178" t="str">
-        <v>United States dollar</v>
+        <v>Polish złoty</v>
+      </c>
+      <c r="F178">
+        <v>37950802</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="str">
-        <v>Ireland</v>
+        <v>Portugal</v>
       </c>
       <c r="B179" t="str">
-        <v>Dublin</v>
-      </c>
-      <c r="C179">
-        <v>4994724</v>
+        <v>Europe</v>
+      </c>
+      <c r="C179" t="str">
+        <v>Lisbon</v>
       </c>
       <c r="D179" t="str">
-        <v>English, Irish</v>
+        <v>Portuguese</v>
       </c>
       <c r="E179" t="str">
         <v>Euro</v>
       </c>
+      <c r="F179">
+        <v>10305564</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="str">
-        <v>Curaçao</v>
+        <v>Puerto Rico</v>
       </c>
       <c r="B180" t="str">
-        <v>Willemstad</v>
-      </c>
-      <c r="C180">
-        <v>155014</v>
+        <v>North America</v>
+      </c>
+      <c r="C180" t="str">
+        <v>San Juan</v>
       </c>
       <c r="D180" t="str">
-        <v>English, Dutch, Papiamento</v>
+        <v>English, Spanish</v>
       </c>
       <c r="E180" t="str">
-        <v>Netherlands Antillean guilder</v>
+        <v>United States dollar</v>
+      </c>
+      <c r="F180">
+        <v>3194034</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="str">
-        <v>French Guiana</v>
+        <v>Qatar</v>
       </c>
       <c r="B181" t="str">
-        <v>Cayenne</v>
-      </c>
-      <c r="C181">
-        <v>254541</v>
+        <v>Asia</v>
+      </c>
+      <c r="C181" t="str">
+        <v>Doha</v>
       </c>
       <c r="D181" t="str">
-        <v>French</v>
+        <v>Arabic</v>
       </c>
       <c r="E181" t="str">
-        <v>Euro</v>
+        <v>Qatari riyal</v>
+      </c>
+      <c r="F181">
+        <v>2881060</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="str">
-        <v>Norway</v>
+        <v>Republic of the Congo</v>
       </c>
       <c r="B182" t="str">
-        <v>Oslo</v>
-      </c>
-      <c r="C182">
-        <v>5379475</v>
+        <v>Africa</v>
+      </c>
+      <c r="C182" t="str">
+        <v>Brazzaville</v>
       </c>
       <c r="D182" t="str">
-        <v>Norwegian Nynorsk, Norwegian Bokmål, Sami</v>
+        <v>French, Kikongo, Lingala</v>
       </c>
       <c r="E182" t="str">
-        <v>Norwegian krone</v>
+        <v>Central African CFA franc</v>
+      </c>
+      <c r="F182">
+        <v>5657000</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="str">
-        <v>Åland Islands</v>
+        <v>Réunion</v>
       </c>
       <c r="B183" t="str">
-        <v>Mariehamn</v>
-      </c>
-      <c r="C183">
-        <v>29458</v>
+        <v>Africa</v>
+      </c>
+      <c r="C183" t="str">
+        <v>Saint-Denis</v>
       </c>
       <c r="D183" t="str">
-        <v>Swedish</v>
+        <v>French</v>
       </c>
       <c r="E183" t="str">
         <v>Euro</v>
       </c>
+      <c r="F183">
+        <v>840974</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="str">
-        <v>Central African Republic</v>
+        <v>Romania</v>
       </c>
       <c r="B184" t="str">
-        <v>Bangui</v>
-      </c>
-      <c r="C184">
-        <v>4829764</v>
+        <v>Europe</v>
+      </c>
+      <c r="C184" t="str">
+        <v>Bucharest</v>
       </c>
       <c r="D184" t="str">
-        <v>French, Sango</v>
+        <v>Romanian</v>
       </c>
       <c r="E184" t="str">
-        <v>Central African CFA franc</v>
+        <v>Romanian leu</v>
+      </c>
+      <c r="F184">
+        <v>19286123</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="str">
-        <v>Burkina Faso</v>
+        <v>Russia</v>
       </c>
       <c r="B185" t="str">
-        <v>Ouagadougou</v>
-      </c>
-      <c r="C185">
-        <v>20903278</v>
+        <v>Europe</v>
+      </c>
+      <c r="C185" t="str">
+        <v>Moscow</v>
       </c>
       <c r="D185" t="str">
-        <v>French</v>
+        <v>Russian</v>
       </c>
       <c r="E185" t="str">
-        <v>West African CFA franc</v>
+        <v>Russian ruble</v>
+      </c>
+      <c r="F185">
+        <v>144104080</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="str">
-        <v>Eritrea</v>
+        <v>Rwanda</v>
       </c>
       <c r="B186" t="str">
-        <v>Asmara</v>
-      </c>
-      <c r="C186">
-        <v>5352000</v>
+        <v>Africa</v>
+      </c>
+      <c r="C186" t="str">
+        <v>Kigali</v>
       </c>
       <c r="D186" t="str">
-        <v>Arabic, English, Tigrinya</v>
+        <v>English, French, Kinyarwanda</v>
       </c>
       <c r="E186" t="str">
-        <v>Eritrean nakfa</v>
+        <v>Rwandan franc</v>
+      </c>
+      <c r="F186">
+        <v>12952209</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="str">
-        <v>Tanzania</v>
+        <v>Saint Barthélemy</v>
       </c>
       <c r="B187" t="str">
-        <v>Dodoma</v>
-      </c>
-      <c r="C187">
-        <v>59734213</v>
+        <v>North America</v>
+      </c>
+      <c r="C187" t="str">
+        <v>Gustavia</v>
       </c>
       <c r="D187" t="str">
-        <v>English, Swahili</v>
+        <v>French</v>
       </c>
       <c r="E187" t="str">
-        <v>Tanzanian shilling</v>
+        <v>Euro</v>
+      </c>
+      <c r="F187">
+        <v>4255</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="str">
-        <v>South Korea</v>
+        <v>Saint Helena, Ascension and Tristan da Cunha</v>
       </c>
       <c r="B188" t="str">
-        <v>Seoul</v>
-      </c>
-      <c r="C188">
-        <v>51780579</v>
+        <v>Africa</v>
+      </c>
+      <c r="C188" t="str">
+        <v>Jamestown</v>
       </c>
       <c r="D188" t="str">
-        <v>Korean</v>
+        <v>English</v>
       </c>
       <c r="E188" t="str">
-        <v>South Korean won</v>
+        <v>Pound sterling, Saint Helena pound</v>
+      </c>
+      <c r="F188">
+        <v>53192</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="str">
-        <v>Jordan</v>
+        <v>Saint Kitts and Nevis</v>
       </c>
       <c r="B189" t="str">
-        <v>Amman</v>
-      </c>
-      <c r="C189">
-        <v>10203140</v>
+        <v>North America</v>
+      </c>
+      <c r="C189" t="str">
+        <v>Basseterre</v>
       </c>
       <c r="D189" t="str">
-        <v>Arabic</v>
+        <v>English</v>
       </c>
       <c r="E189" t="str">
-        <v>Jordanian dinar</v>
+        <v>Eastern Caribbean dollar</v>
+      </c>
+      <c r="F189">
+        <v>53192</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="str">
-        <v>Mauritania</v>
+        <v>Saint Lucia</v>
       </c>
       <c r="B190" t="str">
-        <v>Nouakchott</v>
-      </c>
-      <c r="C190">
-        <v>4649660</v>
+        <v>North America</v>
+      </c>
+      <c r="C190" t="str">
+        <v>Castries</v>
       </c>
       <c r="D190" t="str">
-        <v>Arabic</v>
+        <v>English</v>
       </c>
       <c r="E190" t="str">
-        <v>Mauritanian ouguiya</v>
+        <v>Eastern Caribbean dollar</v>
+      </c>
+      <c r="F190">
+        <v>183629</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="str">
-        <v>Lithuania</v>
+        <v>Saint Martin</v>
       </c>
       <c r="B191" t="str">
-        <v>Vilnius</v>
-      </c>
-      <c r="C191">
-        <v>2794700</v>
+        <v>North America</v>
+      </c>
+      <c r="C191" t="str">
+        <v>Marigot</v>
       </c>
       <c r="D191" t="str">
-        <v>Lithuanian</v>
+        <v>French</v>
       </c>
       <c r="E191" t="str">
         <v>Euro</v>
       </c>
+      <c r="F191">
+        <v>38659</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="str">
-        <v>United States Minor Outlying Islands</v>
+        <v>Saint Pierre and Miquelon</v>
       </c>
       <c r="B192" t="str">
-        <v>Washington DC</v>
-      </c>
-      <c r="C192">
-        <v>300</v>
+        <v>North America</v>
+      </c>
+      <c r="C192" t="str">
+        <v>Saint-Pierre</v>
       </c>
       <c r="D192" t="str">
-        <v>English</v>
+        <v>French</v>
       </c>
       <c r="E192" t="str">
-        <v>United States dollar</v>
+        <v>Euro</v>
+      </c>
+      <c r="F192">
+        <v>6069</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="str">
-        <v>Slovakia</v>
+        <v>Saint Vincent and the Grenadines</v>
       </c>
       <c r="B193" t="str">
-        <v>Bratislava</v>
-      </c>
-      <c r="C193">
-        <v>5458827</v>
+        <v>North America</v>
+      </c>
+      <c r="C193" t="str">
+        <v>Kingstown</v>
       </c>
       <c r="D193" t="str">
-        <v>Slovak</v>
+        <v>English</v>
       </c>
       <c r="E193" t="str">
-        <v>Euro</v>
+        <v>Eastern Caribbean dollar</v>
+      </c>
+      <c r="F193">
+        <v>110947</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="str">
-        <v>Angola</v>
+        <v>Samoa</v>
       </c>
       <c r="B194" t="str">
-        <v>Luanda</v>
-      </c>
-      <c r="C194">
-        <v>32866268</v>
+        <v>Oceania</v>
+      </c>
+      <c r="C194" t="str">
+        <v>Apia</v>
       </c>
       <c r="D194" t="str">
-        <v>Portuguese</v>
+        <v>English, Samoan</v>
       </c>
       <c r="E194" t="str">
-        <v>Angolan kwanza</v>
+        <v>Samoan tālā</v>
+      </c>
+      <c r="F194">
+        <v>198410</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="str">
-        <v>Kazakhstan</v>
+        <v>San Marino</v>
       </c>
       <c r="B195" t="str">
-        <v>Nur-Sultan</v>
-      </c>
-      <c r="C195">
-        <v>18754440</v>
+        <v>Europe</v>
+      </c>
+      <c r="C195" t="str">
+        <v>City of San Marino</v>
       </c>
       <c r="D195" t="str">
-        <v>Kazakh, Russian</v>
+        <v>Italian</v>
       </c>
       <c r="E195" t="str">
-        <v>Kazakhstani tenge</v>
+        <v>Euro</v>
+      </c>
+      <c r="F195">
+        <v>33938</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="str">
-        <v>Moldova</v>
+        <v>São Tomé and Príncipe</v>
       </c>
       <c r="B196" t="str">
-        <v>Chișinău</v>
-      </c>
-      <c r="C196">
-        <v>2617820</v>
+        <v>Africa</v>
+      </c>
+      <c r="C196" t="str">
+        <v>São Tomé</v>
       </c>
       <c r="D196" t="str">
-        <v>Romanian</v>
+        <v>Portuguese</v>
       </c>
       <c r="E196" t="str">
-        <v>Moldovan leu</v>
+        <v>São Tomé and Príncipe dobra</v>
+      </c>
+      <c r="F196">
+        <v>219161</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="str">
-        <v>Mali</v>
+        <v>Saudi Arabia</v>
       </c>
       <c r="B197" t="str">
-        <v>Bamako</v>
-      </c>
-      <c r="C197">
-        <v>20250834</v>
+        <v>Asia</v>
+      </c>
+      <c r="C197" t="str">
+        <v>Riyadh</v>
       </c>
       <c r="D197" t="str">
-        <v>French</v>
+        <v>Arabic</v>
       </c>
       <c r="E197" t="str">
-        <v>West African CFA franc</v>
+        <v>Saudi riyal</v>
+      </c>
+      <c r="F197">
+        <v>34813867</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="str">
-        <v>Falkland Islands</v>
+        <v>Senegal</v>
       </c>
       <c r="B198" t="str">
-        <v>Stanley</v>
-      </c>
-      <c r="C198">
-        <v>2563</v>
+        <v>Africa</v>
+      </c>
+      <c r="C198" t="str">
+        <v>Dakar</v>
       </c>
       <c r="D198" t="str">
-        <v>English</v>
+        <v>French</v>
       </c>
       <c r="E198" t="str">
-        <v>Falkland Islands pound</v>
+        <v>West African CFA franc</v>
+      </c>
+      <c r="F198">
+        <v>16743930</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="str">
-        <v>Armenia</v>
+        <v>Serbia</v>
       </c>
       <c r="B199" t="str">
-        <v>Yerevan</v>
-      </c>
-      <c r="C199">
-        <v>2963234</v>
+        <v>Europe</v>
+      </c>
+      <c r="C199" t="str">
+        <v>Belgrade</v>
       </c>
       <c r="D199" t="str">
-        <v>Armenian</v>
+        <v>Serbian</v>
       </c>
       <c r="E199" t="str">
-        <v>Armenian dram</v>
+        <v>Serbian dinar</v>
+      </c>
+      <c r="F199">
+        <v>6908224</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="str">
-        <v>Samoa</v>
+        <v>Seychelles</v>
       </c>
       <c r="B200" t="str">
-        <v>Apia</v>
-      </c>
-      <c r="C200">
-        <v>198410</v>
+        <v>Africa</v>
+      </c>
+      <c r="C200" t="str">
+        <v>Victoria</v>
       </c>
       <c r="D200" t="str">
-        <v>English, Samoan</v>
+        <v>Seychellois Creole, English, French</v>
       </c>
       <c r="E200" t="str">
-        <v>Samoan tālā</v>
+        <v>Seychellois rupee</v>
+      </c>
+      <c r="F200">
+        <v>98462</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="str">
-        <v>Jersey</v>
+        <v>Sierra Leone</v>
       </c>
       <c r="B201" t="str">
-        <v>Saint Helier</v>
-      </c>
-      <c r="C201">
-        <v>100800</v>
+        <v>Africa</v>
+      </c>
+      <c r="C201" t="str">
+        <v>Freetown</v>
       </c>
       <c r="D201" t="str">
-        <v>English, French, Jèrriais</v>
+        <v>English</v>
       </c>
       <c r="E201" t="str">
-        <v>British pound, Jersey pound</v>
+        <v>Sierra Leonean leone</v>
+      </c>
+      <c r="F201">
+        <v>7976985</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="str">
-        <v>Japan</v>
+        <v>Singapore</v>
       </c>
       <c r="B202" t="str">
-        <v>Tokyo</v>
-      </c>
-      <c r="C202">
-        <v>125836021</v>
+        <v>Asia</v>
+      </c>
+      <c r="C202" t="str">
+        <v>Singapore</v>
       </c>
       <c r="D202" t="str">
-        <v>Japanese</v>
+        <v>English, Chinese, Malay, Tamil</v>
       </c>
       <c r="E202" t="str">
-        <v>Japanese yen</v>
+        <v>Singapore dollar</v>
+      </c>
+      <c r="F202">
+        <v>5685807</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="str">
-        <v>Bolivia</v>
+        <v>Sint Maarten</v>
       </c>
       <c r="B203" t="str">
-        <v>Sucre</v>
-      </c>
-      <c r="C203">
-        <v>11673029</v>
+        <v>North America</v>
+      </c>
+      <c r="C203" t="str">
+        <v>Philipsburg</v>
       </c>
       <c r="D203" t="str">
-        <v>Aymara, Guaraní, Quechua, Spanish</v>
+        <v>English, French, Dutch</v>
       </c>
       <c r="E203" t="str">
-        <v>Bolivian boliviano</v>
+        <v>Netherlands Antillean guilder</v>
+      </c>
+      <c r="F203">
+        <v>40812</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="str">
-        <v>Chile</v>
+        <v>Slovakia</v>
       </c>
       <c r="B204" t="str">
-        <v>Santiago</v>
-      </c>
-      <c r="C204">
-        <v>19116209</v>
+        <v>Europe</v>
+      </c>
+      <c r="C204" t="str">
+        <v>Bratislava</v>
       </c>
       <c r="D204" t="str">
-        <v>Spanish</v>
+        <v>Slovak</v>
       </c>
       <c r="E204" t="str">
-        <v>Chilean peso</v>
+        <v>Euro</v>
+      </c>
+      <c r="F204">
+        <v>5458827</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="str">
-        <v>United States</v>
+        <v>Slovenia</v>
       </c>
       <c r="B205" t="str">
-        <v>Washington, D.C.</v>
-      </c>
-      <c r="C205">
-        <v>329484123</v>
+        <v>Europe</v>
+      </c>
+      <c r="C205" t="str">
+        <v>Ljubljana</v>
       </c>
       <c r="D205" t="str">
-        <v>English</v>
+        <v>Slovene</v>
       </c>
       <c r="E205" t="str">
-        <v>United States dollar</v>
+        <v>Euro</v>
+      </c>
+      <c r="F205">
+        <v>2100126</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="str">
-        <v>Saint Vincent and the Grenadines</v>
+        <v>Solomon Islands</v>
       </c>
       <c r="B206" t="str">
-        <v>Kingstown</v>
-      </c>
-      <c r="C206">
-        <v>110947</v>
+        <v>Oceania</v>
+      </c>
+      <c r="C206" t="str">
+        <v>Honiara</v>
       </c>
       <c r="D206" t="str">
         <v>English</v>
       </c>
       <c r="E206" t="str">
-        <v>Eastern Caribbean dollar</v>
+        <v>Solomon Islands dollar</v>
+      </c>
+      <c r="F206">
+        <v>686878</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="str">
-        <v>Bermuda</v>
+        <v>Somalia</v>
       </c>
       <c r="B207" t="str">
-        <v>Hamilton</v>
-      </c>
-      <c r="C207">
-        <v>63903</v>
+        <v>Africa</v>
+      </c>
+      <c r="C207" t="str">
+        <v>Mogadishu</v>
       </c>
       <c r="D207" t="str">
-        <v>English</v>
+        <v>Arabic, Somali</v>
       </c>
       <c r="E207" t="str">
-        <v>Bermudian dollar</v>
+        <v>Somali shilling</v>
+      </c>
+      <c r="F207">
+        <v>15893219</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="str">
-        <v>Seychelles</v>
+        <v>South Africa</v>
       </c>
       <c r="B208" t="str">
-        <v>Victoria</v>
-      </c>
-      <c r="C208">
-        <v>98462</v>
+        <v>Africa</v>
+      </c>
+      <c r="C208" t="str">
+        <v>Pretoria</v>
       </c>
       <c r="D208" t="str">
-        <v>Seychellois Creole, English, French</v>
+        <v>Afrikaans, English, Southern Ndebele, Northern Sotho, Southern Sotho, Swazi, Tswana, Tsonga, Venda, Xhosa, Zulu</v>
       </c>
       <c r="E208" t="str">
-        <v>Seychellois rupee</v>
+        <v>South African rand</v>
+      </c>
+      <c r="F208">
+        <v>59308690</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>British Indian Ocean Territory</v>
+        <v>South Georgia</v>
       </c>
       <c r="B209" t="str">
-        <v>Diego Garcia</v>
-      </c>
-      <c r="C209">
-        <v>3000</v>
+        <v>Antarctica</v>
+      </c>
+      <c r="C209" t="str">
+        <v>King Edward Point</v>
       </c>
       <c r="D209" t="str">
         <v>English</v>
       </c>
       <c r="E209" t="str">
-        <v>United States dollar</v>
+        <v>Saint Helena pound</v>
+      </c>
+      <c r="F209">
+        <v>30</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>Guatemala</v>
+        <v>South Korea</v>
       </c>
       <c r="B210" t="str">
-        <v>Guatemala City</v>
-      </c>
-      <c r="C210">
-        <v>16858333</v>
+        <v>Asia</v>
+      </c>
+      <c r="C210" t="str">
+        <v>Seoul</v>
       </c>
       <c r="D210" t="str">
-        <v>Spanish</v>
+        <v>Korean</v>
       </c>
       <c r="E210" t="str">
-        <v>Guatemalan quetzal</v>
+        <v>South Korean won</v>
+      </c>
+      <c r="F210">
+        <v>51780579</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>Ecuador</v>
+        <v>South Sudan</v>
       </c>
       <c r="B211" t="str">
-        <v>Quito</v>
-      </c>
-      <c r="C211">
-        <v>17643060</v>
+        <v>Africa</v>
+      </c>
+      <c r="C211" t="str">
+        <v>Juba</v>
       </c>
       <c r="D211" t="str">
-        <v>Spanish</v>
+        <v>English</v>
       </c>
       <c r="E211" t="str">
-        <v>United States dollar</v>
+        <v>South Sudanese pound</v>
+      </c>
+      <c r="F211">
+        <v>11193729</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="str">
-        <v>Martinique</v>
+        <v>Spain</v>
       </c>
       <c r="B212" t="str">
-        <v>Fort-de-France</v>
-      </c>
-      <c r="C212">
-        <v>378243</v>
+        <v>Europe</v>
+      </c>
+      <c r="C212" t="str">
+        <v>Madrid</v>
       </c>
       <c r="D212" t="str">
-        <v>French</v>
+        <v>Spanish, Catalan, Basque, Galician</v>
       </c>
       <c r="E212" t="str">
         <v>Euro</v>
       </c>
+      <c r="F212">
+        <v>47351567</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>Tajikistan</v>
+        <v>Sri Lanka</v>
       </c>
       <c r="B213" t="str">
-        <v>Dushanbe</v>
-      </c>
-      <c r="C213">
-        <v>9537642</v>
+        <v>Asia</v>
+      </c>
+      <c r="C213" t="str">
+        <v>Sri Jayawardenepura Kotte</v>
       </c>
       <c r="D213" t="str">
-        <v>Russian, Tajik</v>
+        <v>Sinhala, Tamil</v>
       </c>
       <c r="E213" t="str">
-        <v>Tajikistani somoni</v>
+        <v>Sri Lankan rupee</v>
+      </c>
+      <c r="F213">
+        <v>21919000</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>Malta</v>
+        <v>Sudan</v>
       </c>
       <c r="B214" t="str">
-        <v>Valletta</v>
-      </c>
-      <c r="C214">
-        <v>525285</v>
+        <v>Africa</v>
+      </c>
+      <c r="C214" t="str">
+        <v>Khartoum</v>
       </c>
       <c r="D214" t="str">
-        <v>English, Maltese</v>
+        <v>Arabic, English</v>
       </c>
       <c r="E214" t="str">
-        <v>Euro</v>
+        <v>Sudanese pound</v>
+      </c>
+      <c r="F214">
+        <v>43849269</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>Gambia</v>
+        <v>Suriname</v>
       </c>
       <c r="B215" t="str">
-        <v>Banjul</v>
-      </c>
-      <c r="C215">
-        <v>2416664</v>
+        <v>South America</v>
+      </c>
+      <c r="C215" t="str">
+        <v>Paramaribo</v>
       </c>
       <c r="D215" t="str">
-        <v>English</v>
+        <v>Dutch</v>
       </c>
       <c r="E215" t="str">
-        <v>dalasi</v>
+        <v>Surinamese dollar</v>
+      </c>
+      <c r="F215">
+        <v>586634</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="str">
-        <v>Nigeria</v>
+        <v>Svalbard and Jan Mayen</v>
       </c>
       <c r="B216" t="str">
-        <v>Abuja</v>
-      </c>
-      <c r="C216">
-        <v>206139587</v>
+        <v>Europe</v>
+      </c>
+      <c r="C216" t="str">
+        <v>Longyearbyen</v>
       </c>
       <c r="D216" t="str">
-        <v>English</v>
+        <v>Norwegian</v>
       </c>
       <c r="E216" t="str">
-        <v>Nigerian naira</v>
+        <v>krone</v>
+      </c>
+      <c r="F216">
+        <v>2562</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>Bahamas</v>
+        <v>Sweden</v>
       </c>
       <c r="B217" t="str">
-        <v>Nassau</v>
-      </c>
-      <c r="C217">
-        <v>393248</v>
+        <v>Europe</v>
+      </c>
+      <c r="C217" t="str">
+        <v>Stockholm</v>
       </c>
       <c r="D217" t="str">
-        <v>English</v>
+        <v>Swedish</v>
       </c>
       <c r="E217" t="str">
-        <v>Bahamian dollar, United States dollar</v>
+        <v>Swedish krona</v>
+      </c>
+      <c r="F217">
+        <v>10353442</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="str">
-        <v>Kosovo</v>
+        <v>Switzerland</v>
       </c>
       <c r="B218" t="str">
-        <v>Pristina</v>
-      </c>
-      <c r="C218">
-        <v>1775378</v>
+        <v>Europe</v>
+      </c>
+      <c r="C218" t="str">
+        <v>Bern</v>
       </c>
       <c r="D218" t="str">
-        <v>Albanian, Serbian</v>
+        <v>French, Swiss German, Italian, Romansh</v>
       </c>
       <c r="E218" t="str">
-        <v>Euro</v>
+        <v>Swiss franc</v>
+      </c>
+      <c r="F218">
+        <v>8654622</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="str">
-        <v>Kuwait</v>
+        <v>Syria</v>
       </c>
       <c r="B219" t="str">
-        <v>Kuwait City</v>
-      </c>
-      <c r="C219">
-        <v>4270563</v>
+        <v>Asia</v>
+      </c>
+      <c r="C219" t="str">
+        <v>Damascus</v>
       </c>
       <c r="D219" t="str">
         <v>Arabic</v>
       </c>
       <c r="E219" t="str">
-        <v>Kuwaiti dinar</v>
+        <v>Syrian pound</v>
+      </c>
+      <c r="F219">
+        <v>17500657</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>Maldives</v>
+        <v>Taiwan</v>
       </c>
       <c r="B220" t="str">
-        <v>Malé</v>
-      </c>
-      <c r="C220">
-        <v>540542</v>
+        <v>Asia</v>
+      </c>
+      <c r="C220" t="str">
+        <v>Taipei</v>
       </c>
       <c r="D220" t="str">
-        <v>Maldivian</v>
+        <v>Chinese</v>
       </c>
       <c r="E220" t="str">
-        <v>Maldivian rufiyaa</v>
+        <v>New Taiwan dollar</v>
+      </c>
+      <c r="F220">
+        <v>23503349</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>South Sudan</v>
+        <v>Tajikistan</v>
       </c>
       <c r="B221" t="str">
-        <v>Juba</v>
-      </c>
-      <c r="C221">
-        <v>11193729</v>
+        <v>Asia</v>
+      </c>
+      <c r="C221" t="str">
+        <v>Dushanbe</v>
       </c>
       <c r="D221" t="str">
-        <v>English</v>
+        <v>Russian, Tajik</v>
       </c>
       <c r="E221" t="str">
-        <v>South Sudanese pound</v>
+        <v>Tajikistani somoni</v>
+      </c>
+      <c r="F221">
+        <v>9537642</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>Iran</v>
+        <v>Tanzania</v>
       </c>
       <c r="B222" t="str">
-        <v>Tehran</v>
-      </c>
-      <c r="C222">
-        <v>83992953</v>
+        <v>Africa</v>
+      </c>
+      <c r="C222" t="str">
+        <v>Dodoma</v>
       </c>
       <c r="D222" t="str">
-        <v>Persian (Farsi)</v>
+        <v>English, Swahili</v>
       </c>
       <c r="E222" t="str">
-        <v>Iranian rial</v>
+        <v>Tanzanian shilling</v>
+      </c>
+      <c r="F222">
+        <v>59734213</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>Albania</v>
+        <v>Thailand</v>
       </c>
       <c r="B223" t="str">
-        <v>Tirana</v>
-      </c>
-      <c r="C223">
-        <v>2837743</v>
+        <v>Asia</v>
+      </c>
+      <c r="C223" t="str">
+        <v>Bangkok</v>
       </c>
       <c r="D223" t="str">
-        <v>Albanian</v>
+        <v>Thai</v>
       </c>
       <c r="E223" t="str">
-        <v>Albanian lek</v>
+        <v>Thai baht</v>
+      </c>
+      <c r="F223">
+        <v>69799978</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>Brazil</v>
+        <v>Timor-Leste</v>
       </c>
       <c r="B224" t="str">
-        <v>Brasília</v>
-      </c>
-      <c r="C224">
-        <v>212559409</v>
+        <v>Oceania</v>
+      </c>
+      <c r="C224" t="str">
+        <v>Dili</v>
       </c>
       <c r="D224" t="str">
-        <v>Portuguese</v>
+        <v>Portuguese, Tetum</v>
       </c>
       <c r="E224" t="str">
-        <v>Brazilian real</v>
+        <v>United States dollar</v>
+      </c>
+      <c r="F224">
+        <v>1318442</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>Serbia</v>
+        <v>Togo</v>
       </c>
       <c r="B225" t="str">
-        <v>Belgrade</v>
-      </c>
-      <c r="C225">
-        <v>6908224</v>
+        <v>Africa</v>
+      </c>
+      <c r="C225" t="str">
+        <v>Lomé</v>
       </c>
       <c r="D225" t="str">
-        <v>Serbian</v>
+        <v>French</v>
       </c>
       <c r="E225" t="str">
-        <v>Serbian dinar</v>
+        <v>West African CFA franc</v>
+      </c>
+      <c r="F225">
+        <v>8278737</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="str">
-        <v>Belize</v>
+        <v>Tokelau</v>
       </c>
       <c r="B226" t="str">
-        <v>Belmopan</v>
-      </c>
-      <c r="C226">
-        <v>397621</v>
+        <v>Oceania</v>
+      </c>
+      <c r="C226" t="str">
+        <v>Fakaofo</v>
       </c>
       <c r="D226" t="str">
-        <v>Belizean Creole, English, Spanish</v>
+        <v>English, Samoan, Tokelauan</v>
       </c>
       <c r="E226" t="str">
-        <v>Belize dollar</v>
+        <v>New Zealand dollar</v>
+      </c>
+      <c r="F226">
+        <v>1411</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>Myanmar</v>
+        <v>Tonga</v>
       </c>
       <c r="B227" t="str">
-        <v>Naypyidaw</v>
-      </c>
-      <c r="C227">
-        <v>54409794</v>
+        <v>Oceania</v>
+      </c>
+      <c r="C227" t="str">
+        <v>Nuku'alofa</v>
       </c>
       <c r="D227" t="str">
-        <v>Burmese</v>
+        <v>English, Tongan</v>
       </c>
       <c r="E227" t="str">
-        <v>Burmese kyat</v>
+        <v>Tongan paʻanga</v>
+      </c>
+      <c r="F227">
+        <v>105697</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>Bhutan</v>
+        <v>Trinidad and Tobago</v>
       </c>
       <c r="B228" t="str">
-        <v>Thimphu</v>
-      </c>
-      <c r="C228">
-        <v>771612</v>
+        <v>North America</v>
+      </c>
+      <c r="C228" t="str">
+        <v>Port of Spain</v>
       </c>
       <c r="D228" t="str">
-        <v>Dzongkha</v>
+        <v>English</v>
       </c>
       <c r="E228" t="str">
-        <v>Bhutanese ngultrum, Indian rupee</v>
+        <v>Trinidad and Tobago dollar</v>
+      </c>
+      <c r="F228">
+        <v>1399491</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="str">
-        <v>Venezuela</v>
+        <v>Tunisia</v>
       </c>
       <c r="B229" t="str">
-        <v>Caracas</v>
-      </c>
-      <c r="C229">
-        <v>28435943</v>
+        <v>Africa</v>
+      </c>
+      <c r="C229" t="str">
+        <v>Tunis</v>
       </c>
       <c r="D229" t="str">
-        <v>Spanish</v>
+        <v>Arabic</v>
       </c>
       <c r="E229" t="str">
-        <v>Venezuelan bolívar soberano</v>
+        <v>Tunisian dinar</v>
+      </c>
+      <c r="F229">
+        <v>11818618</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="str">
-        <v>Liberia</v>
+        <v>Turkey</v>
       </c>
       <c r="B230" t="str">
-        <v>Monrovia</v>
-      </c>
-      <c r="C230">
-        <v>5057677</v>
+        <v>Europe</v>
+      </c>
+      <c r="C230" t="str">
+        <v>Ankara</v>
       </c>
       <c r="D230" t="str">
-        <v>English</v>
+        <v>Turkish</v>
       </c>
       <c r="E230" t="str">
-        <v>Liberian dollar</v>
+        <v>Turkish lira</v>
+      </c>
+      <c r="F230">
+        <v>84339067</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="str">
-        <v>Jamaica</v>
+        <v>Turkmenistan</v>
       </c>
       <c r="B231" t="str">
-        <v>Kingston</v>
-      </c>
-      <c r="C231">
-        <v>2961161</v>
+        <v>Asia</v>
+      </c>
+      <c r="C231" t="str">
+        <v>Ashgabat</v>
       </c>
       <c r="D231" t="str">
-        <v>English, Jamaican Patois</v>
+        <v>Russian, Turkmen</v>
       </c>
       <c r="E231" t="str">
-        <v>Jamaican dollar</v>
+        <v>Turkmenistan manat</v>
+      </c>
+      <c r="F231">
+        <v>6031187</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="str">
-        <v>Poland</v>
+        <v>Turks and Caicos Islands</v>
       </c>
       <c r="B232" t="str">
-        <v>Warsaw</v>
-      </c>
-      <c r="C232">
-        <v>37950802</v>
+        <v>North America</v>
+      </c>
+      <c r="C232" t="str">
+        <v>Cockburn Town</v>
       </c>
       <c r="D232" t="str">
-        <v>Polish</v>
+        <v>English</v>
       </c>
       <c r="E232" t="str">
-        <v>Polish złoty</v>
+        <v>United States dollar</v>
+      </c>
+      <c r="F232">
+        <v>38718</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>Cayman Islands</v>
+        <v>Tuvalu</v>
       </c>
       <c r="B233" t="str">
-        <v>George Town</v>
-      </c>
-      <c r="C233">
-        <v>65720</v>
+        <v>Oceania</v>
+      </c>
+      <c r="C233" t="str">
+        <v>Funafuti</v>
       </c>
       <c r="D233" t="str">
-        <v>English</v>
+        <v>English, Tuvaluan</v>
       </c>
       <c r="E233" t="str">
-        <v>Cayman Islands dollar</v>
+        <v>Australian dollar, Tuvaluan dollar</v>
+      </c>
+      <c r="F233">
+        <v>11792</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="str">
-        <v>Brunei</v>
+        <v>Uganda</v>
       </c>
       <c r="B234" t="str">
-        <v>Bandar Seri Begawan</v>
-      </c>
-      <c r="C234">
-        <v>437483</v>
+        <v>Africa</v>
+      </c>
+      <c r="C234" t="str">
+        <v>Kampala</v>
       </c>
       <c r="D234" t="str">
-        <v>Malay</v>
+        <v>English, Swahili</v>
       </c>
       <c r="E234" t="str">
-        <v>Brunei dollar, Singapore dollar</v>
+        <v>Ugandan shilling</v>
+      </c>
+      <c r="F234">
+        <v>45741000</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>Comoros</v>
+        <v>Ukraine</v>
       </c>
       <c r="B235" t="str">
-        <v>Moroni</v>
-      </c>
-      <c r="C235">
-        <v>869595</v>
+        <v>Europe</v>
+      </c>
+      <c r="C235" t="str">
+        <v>Kyiv</v>
       </c>
       <c r="D235" t="str">
-        <v>Arabic, French, Comorian</v>
+        <v>Ukrainian</v>
       </c>
       <c r="E235" t="str">
-        <v>Comorian franc</v>
+        <v>Ukrainian hryvnia</v>
+      </c>
+      <c r="F235">
+        <v>44134693</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>Guam</v>
+        <v>United Arab Emirates</v>
       </c>
       <c r="B236" t="str">
-        <v>Hagåtña</v>
-      </c>
-      <c r="C236">
-        <v>168783</v>
+        <v>Asia</v>
+      </c>
+      <c r="C236" t="str">
+        <v>Abu Dhabi</v>
       </c>
       <c r="D236" t="str">
-        <v>Chamorro, English, Spanish</v>
+        <v>Arabic</v>
       </c>
       <c r="E236" t="str">
-        <v>United States dollar</v>
+        <v>United Arab Emirates dirham</v>
+      </c>
+      <c r="F236">
+        <v>9890400</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="str">
-        <v>Tonga</v>
+        <v>United Kingdom</v>
       </c>
       <c r="B237" t="str">
-        <v>Nuku'alofa</v>
-      </c>
-      <c r="C237">
-        <v>105697</v>
+        <v>Europe</v>
+      </c>
+      <c r="C237" t="str">
+        <v>London</v>
       </c>
       <c r="D237" t="str">
-        <v>English, Tongan</v>
+        <v>English</v>
       </c>
       <c r="E237" t="str">
-        <v>Tongan paʻanga</v>
+        <v>British pound</v>
+      </c>
+      <c r="F237">
+        <v>67215293</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>Kiribati</v>
+        <v>United States</v>
       </c>
       <c r="B238" t="str">
-        <v>South Tarawa</v>
-      </c>
-      <c r="C238">
-        <v>119446</v>
+        <v>North America</v>
+      </c>
+      <c r="C238" t="str">
+        <v>Washington, D.C.</v>
       </c>
       <c r="D238" t="str">
-        <v>English, Gilbertese</v>
+        <v>English</v>
       </c>
       <c r="E238" t="str">
-        <v>Australian dollar, Kiribati dollar</v>
+        <v>United States dollar</v>
+      </c>
+      <c r="F238">
+        <v>329484123</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>Ghana</v>
+        <v>United States Minor Outlying Islands</v>
       </c>
       <c r="B239" t="str">
-        <v>Accra</v>
-      </c>
-      <c r="C239">
-        <v>31072945</v>
+        <v>Oceania</v>
+      </c>
+      <c r="C239" t="str">
+        <v>Washington DC</v>
       </c>
       <c r="D239" t="str">
         <v>English</v>
       </c>
       <c r="E239" t="str">
-        <v>Ghanaian cedi</v>
+        <v>United States dollar</v>
+      </c>
+      <c r="F239">
+        <v>300</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>Chad</v>
+        <v>United States Virgin Islands</v>
       </c>
       <c r="B240" t="str">
-        <v>N'Djamena</v>
-      </c>
-      <c r="C240">
-        <v>16425859</v>
+        <v>North America</v>
+      </c>
+      <c r="C240" t="str">
+        <v>Charlotte Amalie</v>
       </c>
       <c r="D240" t="str">
-        <v>Arabic, French</v>
+        <v>English</v>
       </c>
       <c r="E240" t="str">
-        <v>Central African CFA franc</v>
+        <v>United States dollar</v>
+      </c>
+      <c r="F240">
+        <v>106290</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="str">
-        <v>Zimbabwe</v>
+        <v>Uruguay</v>
       </c>
       <c r="B241" t="str">
-        <v>Harare</v>
-      </c>
-      <c r="C241">
-        <v>14862927</v>
+        <v>South America</v>
+      </c>
+      <c r="C241" t="str">
+        <v>Montevideo</v>
       </c>
       <c r="D241" t="str">
-        <v>Chibarwe, English, Kalanga, Khoisan, Ndau, Northern Ndebele, Chewa, Shona, Sotho, Tonga, Tswana, Tsonga, Venda, Xhosa, Zimbabwean Sign Language</v>
+        <v>Spanish</v>
       </c>
       <c r="E241" t="str">
-        <v>Zimbabwean dollar</v>
+        <v>Uruguayan peso</v>
+      </c>
+      <c r="F241">
+        <v>3473727</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="str">
-        <v>Saint Martin</v>
+        <v>Uzbekistan</v>
       </c>
       <c r="B242" t="str">
-        <v>Marigot</v>
-      </c>
-      <c r="C242">
-        <v>38659</v>
+        <v>Asia</v>
+      </c>
+      <c r="C242" t="str">
+        <v>Tashkent</v>
       </c>
       <c r="D242" t="str">
-        <v>French</v>
+        <v>Russian, Uzbek</v>
       </c>
       <c r="E242" t="str">
-        <v>Euro</v>
+        <v>Uzbekistani soʻm</v>
+      </c>
+      <c r="F242">
+        <v>34232050</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="str">
-        <v>Mongolia</v>
+        <v>Vanuatu</v>
       </c>
       <c r="B243" t="str">
-        <v>Ulan Bator</v>
-      </c>
-      <c r="C243">
-        <v>3278292</v>
+        <v>Oceania</v>
+      </c>
+      <c r="C243" t="str">
+        <v>Port Vila</v>
       </c>
       <c r="D243" t="str">
-        <v>Mongolian</v>
+        <v>Bislama, English, French</v>
       </c>
       <c r="E243" t="str">
-        <v>Mongolian tögrög</v>
+        <v>Vanuatu vatu</v>
+      </c>
+      <c r="F243">
+        <v>307150</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>Portugal</v>
+        <v>Vatican City</v>
       </c>
       <c r="B244" t="str">
-        <v>Lisbon</v>
-      </c>
-      <c r="C244">
-        <v>10305564</v>
+        <v>Europe</v>
+      </c>
+      <c r="C244" t="str">
+        <v>Vatican City</v>
       </c>
       <c r="D244" t="str">
-        <v>Portuguese</v>
+        <v>Italian, Latin</v>
       </c>
       <c r="E244" t="str">
         <v>Euro</v>
       </c>
+      <c r="F244">
+        <v>451</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>American Samoa</v>
+        <v>Venezuela</v>
       </c>
       <c r="B245" t="str">
-        <v>Pago Pago</v>
-      </c>
-      <c r="C245">
-        <v>55197</v>
+        <v>South America</v>
+      </c>
+      <c r="C245" t="str">
+        <v>Caracas</v>
       </c>
       <c r="D245" t="str">
-        <v>English, Samoan</v>
+        <v>Spanish</v>
       </c>
       <c r="E245" t="str">
-        <v>United States dollar</v>
+        <v>Venezuelan bolívar soberano</v>
+      </c>
+      <c r="F245">
+        <v>28435943</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="str">
-        <v>Republic of the Congo</v>
+        <v>Vietnam</v>
       </c>
       <c r="B246" t="str">
-        <v>Brazzaville</v>
-      </c>
-      <c r="C246">
-        <v>5657000</v>
+        <v>Asia</v>
+      </c>
+      <c r="C246" t="str">
+        <v>Hanoi</v>
       </c>
       <c r="D246" t="str">
-        <v>French, Kikongo, Lingala</v>
+        <v>Vietnamese</v>
       </c>
       <c r="E246" t="str">
-        <v>Central African CFA franc</v>
+        <v>Vietnamese đồng</v>
+      </c>
+      <c r="F246">
+        <v>97338583</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>Belgium</v>
+        <v>Wallis and Futuna</v>
       </c>
       <c r="B247" t="str">
-        <v>Brussels</v>
-      </c>
-      <c r="C247">
-        <v>11555997</v>
+        <v>Oceania</v>
+      </c>
+      <c r="C247" t="str">
+        <v>Mata-Utu</v>
       </c>
       <c r="D247" t="str">
-        <v>German, French, Dutch</v>
+        <v>French</v>
       </c>
       <c r="E247" t="str">
-        <v>Euro</v>
+        <v>CFP franc</v>
+      </c>
+      <c r="F247">
+        <v>11750</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v>Israel</v>
+        <v>Western Sahara</v>
       </c>
       <c r="B248" t="str">
-        <v>Jerusalem</v>
-      </c>
-      <c r="C248">
-        <v>9216900</v>
+        <v>Africa</v>
+      </c>
+      <c r="C248" t="str">
+        <v>El Aaiún</v>
       </c>
       <c r="D248" t="str">
-        <v>Arabic, Hebrew</v>
+        <v>Berber, Hassaniya, Spanish</v>
       </c>
       <c r="E248" t="str">
-        <v>Israeli new shekel</v>
+        <v>Algerian dinar, Moroccan dirham, Mauritanian ouguiya</v>
+      </c>
+      <c r="F248">
+        <v>510713</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v>New Zealand</v>
+        <v>Yemen</v>
       </c>
       <c r="B249" t="str">
-        <v>Wellington</v>
-      </c>
-      <c r="C249">
-        <v>5084300</v>
+        <v>Asia</v>
+      </c>
+      <c r="C249" t="str">
+        <v>Sana'a</v>
       </c>
       <c r="D249" t="str">
-        <v>English, Māori, New Zealand Sign Language</v>
+        <v>Arabic</v>
       </c>
       <c r="E249" t="str">
-        <v>New Zealand dollar</v>
+        <v>Yemeni rial</v>
+      </c>
+      <c r="F249">
+        <v>29825968</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="str">
-        <v>Nicaragua</v>
+        <v>Zambia</v>
       </c>
       <c r="B250" t="str">
-        <v>Managua</v>
-      </c>
-      <c r="C250">
-        <v>6624554</v>
+        <v>Africa</v>
+      </c>
+      <c r="C250" t="str">
+        <v>Lusaka</v>
       </c>
       <c r="D250" t="str">
-        <v>Spanish</v>
+        <v>English</v>
       </c>
       <c r="E250" t="str">
-        <v>Nicaraguan córdoba</v>
+        <v>Zambian kwacha</v>
+      </c>
+      <c r="F250">
+        <v>18383956</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="str">
-        <v>Anguilla</v>
+        <v>Zimbabwe</v>
       </c>
       <c r="B251" t="str">
-        <v>The Valley</v>
-      </c>
-      <c r="C251">
-        <v>13452</v>
+        <v>Africa</v>
+      </c>
+      <c r="C251" t="str">
+        <v>Harare</v>
       </c>
       <c r="D251" t="str">
-        <v>English</v>
+        <v>Chibarwe, English, Kalanga, Khoisan, Ndau, Northern Ndebele, Chewa, Shona, Sotho, Tonga, Tswana, Tsonga, Venda, Xhosa, Zimbabwean Sign Language</v>
       </c>
       <c r="E251" t="str">
-        <v>Eastern Caribbean dollar</v>
+        <v>Zimbabwean dollar</v>
+      </c>
+      <c r="F251">
+        <v>14862927</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E251"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F251"/>
   </ignoredErrors>
 </worksheet>
 </file>